--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_13.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-286168.3446706908</v>
+        <v>-286604.6603451372</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>218615.8834996868</v>
+        <v>218615.883499687</v>
       </c>
     </row>
     <row r="8">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>203.4447309658225</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G2" t="n">
-        <v>11.94294668035388</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>328.5395203650926</v>
       </c>
       <c r="W2" t="n">
         <v>358.909580840975</v>
@@ -738,19 +738,19 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
-        <v>226.1116663261494</v>
+        <v>181.5502905583368</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
-        <v>168.1617110237005</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>37.76353774383362</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
-        <v>85.66489655717938</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,19 +899,19 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>10.00967878293136</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G5" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>171.0890268032919</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>35.91366607058124</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>66.10397131351755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>45.41364086151962</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
         <v>133.3468600696244</v>
@@ -990,10 +990,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
-        <v>112.9958450560685</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
         <v>238.9027100790231</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>94.39375210591643</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>60.99261397958473</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>236.5576913190984</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
         <v>11.94294668035388</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>107.2495710240622</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -1209,13 +1209,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.8252483534483</v>
+        <v>119.3175477853514</v>
       </c>
       <c r="C9" t="n">
-        <v>51.82714728050746</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>13.480376214104</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>28.79958174456931</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>298.208646707806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>286.2199636654877</v>
+        <v>286.2199636654878</v>
       </c>
       <c r="D11" t="n">
-        <v>277.2012677100157</v>
+        <v>277.2012677100158</v>
       </c>
       <c r="E11" t="n">
         <v>298.9434052799213</v>
       </c>
       <c r="F11" t="n">
-        <v>318.1152213678985</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>320.048489265321</v>
       </c>
       <c r="H11" t="n">
-        <v>142.8081449570704</v>
+        <v>237.5986042436309</v>
       </c>
       <c r="I11" t="n">
-        <v>79.19456938825903</v>
+        <v>79.19456938825907</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>130.2208993912661</v>
       </c>
       <c r="U11" t="n">
-        <v>160.442025508113</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>267.0151234259421</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>284.7394114800487</v>
       </c>
       <c r="Y11" t="n">
         <v>297.7119794548875</v>
@@ -1464,7 +1464,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H12" t="n">
-        <v>98.93847887876893</v>
+        <v>84.3729875932661</v>
       </c>
       <c r="I12" t="n">
         <v>67.69846245683961</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>44.62093493050097</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S12" t="n">
         <v>151.2714921173871</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.8253575825031</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>21.8118866414078</v>
       </c>
       <c r="D13" t="n">
-        <v>59.64671682548197</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>58.59446668126142</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>65.88446135348599</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>56.13210615673269</v>
       </c>
       <c r="S13" t="n">
         <v>119.6782075553164</v>
       </c>
       <c r="T13" t="n">
-        <v>138.952706237445</v>
+        <v>138.9527062374451</v>
       </c>
       <c r="U13" t="n">
         <v>192.4238797007582</v>
@@ -1591,10 +1591,10 @@
         <v>191.400380052742</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>137.0454820485451</v>
       </c>
       <c r="Y13" t="n">
-        <v>68.95882220856674</v>
+        <v>127.9203498046128</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>298.2086467078061</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>286.2199636654878</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>298.9434052799213</v>
       </c>
       <c r="F14" t="n">
         <v>318.1152213678985</v>
@@ -1625,7 +1625,7 @@
         <v>237.5986042436309</v>
       </c>
       <c r="I14" t="n">
-        <v>79.19456938825907</v>
+        <v>62.48047494179166</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.4622282009167</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>130.2208993912661</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>160.442025508113</v>
       </c>
       <c r="V14" t="n">
         <v>241.7150239479852</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>267.0151234259421</v>
       </c>
       <c r="X14" t="n">
-        <v>176.3980876713208</v>
+        <v>286.3153816586887</v>
       </c>
       <c r="Y14" t="n">
-        <v>297.7119794548875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133678</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1749,7 +1749,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X15" t="n">
-        <v>181.3723269554804</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y15" t="n">
         <v>190.5961130869169</v>
@@ -1765,19 +1765,19 @@
         <v>89.82535758250314</v>
       </c>
       <c r="C16" t="n">
-        <v>76.02535242790363</v>
+        <v>59.90687886351785</v>
       </c>
       <c r="D16" t="n">
-        <v>59.64671682548202</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>58.59446668126147</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.685824977415166</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>191.400380052742</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>137.0454820485451</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>202.9666599825917</v>
       </c>
       <c r="E17" t="n">
-        <v>224.7087975524973</v>
+        <v>224.7087975524984</v>
       </c>
       <c r="F17" t="n">
         <v>243.8806136404744</v>
@@ -1904,7 +1904,7 @@
         <v>167.4804162205611</v>
       </c>
       <c r="W17" t="n">
-        <v>192.7805156985196</v>
+        <v>192.780515698518</v>
       </c>
       <c r="X17" t="n">
         <v>212.0807739312646</v>
@@ -1938,7 +1938,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H18" t="n">
-        <v>98.93847887876893</v>
+        <v>84.3729875932661</v>
       </c>
       <c r="I18" t="n">
         <v>67.69846245683961</v>
@@ -1971,7 +1971,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
-        <v>136.706000831884</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T18" t="n">
         <v>186.7982527956746</v>
@@ -2178,7 +2178,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133678</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2217,7 +2217,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V21" t="n">
-        <v>211.5461750406465</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
         <v>238.9027100790231</v>
@@ -2409,7 +2409,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>127.4412149769483</v>
+        <v>112.875723691445</v>
       </c>
       <c r="H24" t="n">
         <v>98.93847887876893</v>
@@ -2457,7 +2457,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W24" t="n">
-        <v>224.3372187935198</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X24" t="n">
         <v>195.9378182409833</v>
@@ -2564,7 +2564,7 @@
         <v>262.1767938333758</v>
       </c>
       <c r="F26" t="n">
-        <v>281.348609921353</v>
+        <v>281.3486099213529</v>
       </c>
       <c r="G26" t="n">
         <v>283.2818778187755</v>
@@ -2573,7 +2573,7 @@
         <v>200.8319927970854</v>
       </c>
       <c r="I26" t="n">
-        <v>42.42795794171357</v>
+        <v>42.42795794171354</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>56.6956167543712</v>
+        <v>56.69561675437117</v>
       </c>
       <c r="T26" t="n">
-        <v>93.45428794472056</v>
+        <v>93.45428794472053</v>
       </c>
       <c r="U26" t="n">
         <v>123.6754140615675</v>
@@ -2621,7 +2621,7 @@
         <v>249.5487702121432</v>
       </c>
       <c r="Y26" t="n">
-        <v>260.945368008342</v>
+        <v>260.9453680083419</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133617</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2688,7 +2688,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U27" t="n">
-        <v>201.7443531921696</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V27" t="n">
         <v>226.1116663261494</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.05874613595765</v>
+        <v>53.05874613595762</v>
       </c>
       <c r="C28" t="n">
-        <v>39.25874098135813</v>
+        <v>39.2587409813581</v>
       </c>
       <c r="D28" t="n">
-        <v>22.88010537893652</v>
+        <v>22.88010537893649</v>
       </c>
       <c r="E28" t="n">
-        <v>21.82785523471597</v>
+        <v>21.82785523471594</v>
       </c>
       <c r="F28" t="n">
-        <v>22.29477956290228</v>
+        <v>22.29477956290225</v>
       </c>
       <c r="G28" t="n">
-        <v>38.56948228425011</v>
+        <v>38.56948228425009</v>
       </c>
       <c r="H28" t="n">
-        <v>29.11784990694053</v>
+        <v>29.11784990694051</v>
       </c>
       <c r="I28" t="n">
-        <v>14.09994509176988</v>
+        <v>14.09994509176985</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>19.36549471018719</v>
+        <v>19.36549471018716</v>
       </c>
       <c r="S28" t="n">
-        <v>82.91159610877094</v>
+        <v>82.91159610877091</v>
       </c>
       <c r="T28" t="n">
-        <v>102.1860947908996</v>
+        <v>102.1860947908995</v>
       </c>
       <c r="U28" t="n">
         <v>155.6572682542127</v>
@@ -2779,7 +2779,7 @@
         <v>100.2788706019996</v>
       </c>
       <c r="Y28" t="n">
-        <v>91.1537383580673</v>
+        <v>91.15373835806727</v>
       </c>
     </row>
     <row r="29">
@@ -2789,13 +2789,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>261.4420352612605</v>
+        <v>261.4420352612606</v>
       </c>
       <c r="C29" t="n">
         <v>249.4533522189423</v>
       </c>
       <c r="D29" t="n">
-        <v>240.4346562634702</v>
+        <v>240.4346562634703</v>
       </c>
       <c r="E29" t="n">
         <v>262.1767938333758</v>
@@ -2810,7 +2810,7 @@
         <v>200.8319927970854</v>
       </c>
       <c r="I29" t="n">
-        <v>42.42795794171352</v>
+        <v>42.42795794171354</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,19 +2840,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>56.69561675437114</v>
+        <v>56.69561675437117</v>
       </c>
       <c r="T29" t="n">
-        <v>93.45428794472051</v>
+        <v>93.45428794472053</v>
       </c>
       <c r="U29" t="n">
         <v>123.6754140615675</v>
       </c>
       <c r="V29" t="n">
-        <v>204.9484125014396</v>
+        <v>204.9484125014397</v>
       </c>
       <c r="W29" t="n">
-        <v>230.2485119793965</v>
+        <v>230.2485119793966</v>
       </c>
       <c r="X29" t="n">
         <v>249.5487702121432</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S30" t="n">
         <v>151.2714921173871</v>
@@ -2934,7 +2934,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X30" t="n">
-        <v>181.3723269554797</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y30" t="n">
         <v>190.5961130869169</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.05874613595759</v>
+        <v>53.05874613595762</v>
       </c>
       <c r="C31" t="n">
-        <v>39.25874098135807</v>
+        <v>39.2587409813581</v>
       </c>
       <c r="D31" t="n">
-        <v>22.88010537893646</v>
+        <v>22.88010537893649</v>
       </c>
       <c r="E31" t="n">
-        <v>21.82785523471591</v>
+        <v>21.82785523471594</v>
       </c>
       <c r="F31" t="n">
-        <v>22.29477956290222</v>
+        <v>22.29477956290225</v>
       </c>
       <c r="G31" t="n">
-        <v>38.56948228425006</v>
+        <v>38.56948228425009</v>
       </c>
       <c r="H31" t="n">
-        <v>29.11784990694048</v>
+        <v>29.11784990694051</v>
       </c>
       <c r="I31" t="n">
-        <v>14.09994509176983</v>
+        <v>14.09994509176985</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>19.36549471018714</v>
+        <v>19.36549471018716</v>
       </c>
       <c r="S31" t="n">
-        <v>82.91159610877088</v>
+        <v>82.91159610877091</v>
       </c>
       <c r="T31" t="n">
         <v>102.1860947908995</v>
@@ -3010,13 +3010,13 @@
         <v>129.4668825355832</v>
       </c>
       <c r="W31" t="n">
-        <v>154.6337686061964</v>
+        <v>154.6337686061965</v>
       </c>
       <c r="X31" t="n">
         <v>100.2788706019996</v>
       </c>
       <c r="Y31" t="n">
-        <v>91.15373835806724</v>
+        <v>91.15373835806727</v>
       </c>
     </row>
     <row r="32">
@@ -3600,7 +3600,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I39" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133634</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y39" t="n">
-        <v>176.0306218014135</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="40">
@@ -3837,7 +3837,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I42" t="n">
-        <v>67.69846245683961</v>
+        <v>53.1329711713359</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3870,7 +3870,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T42" t="n">
-        <v>172.2327615101711</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U42" t="n">
         <v>216.3098444776729</v>
@@ -3977,25 +3977,25 @@
         <v>223.974038980382</v>
       </c>
       <c r="C44" t="n">
-        <v>211.9853559380638</v>
+        <v>211.9853559380637</v>
       </c>
       <c r="D44" t="n">
-        <v>202.9666599825918</v>
+        <v>202.9666599825917</v>
       </c>
       <c r="E44" t="n">
         <v>224.7087975524973</v>
       </c>
       <c r="F44" t="n">
-        <v>243.8806136404745</v>
+        <v>243.8806136404744</v>
       </c>
       <c r="G44" t="n">
-        <v>245.813881537897</v>
+        <v>245.8138815378969</v>
       </c>
       <c r="H44" t="n">
         <v>163.3639965162069</v>
       </c>
       <c r="I44" t="n">
-        <v>4.959961660835035</v>
+        <v>4.959961660835006</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.22762047349266</v>
+        <v>19.22762047349264</v>
       </c>
       <c r="T44" t="n">
-        <v>55.98629166384202</v>
+        <v>55.986291663842</v>
       </c>
       <c r="U44" t="n">
-        <v>86.20741778068898</v>
+        <v>86.20741778068896</v>
       </c>
       <c r="V44" t="n">
-        <v>167.4804162205612</v>
+        <v>167.4804162205611</v>
       </c>
       <c r="W44" t="n">
-        <v>192.7805156985181</v>
+        <v>192.780515698518</v>
       </c>
       <c r="X44" t="n">
-        <v>212.0807739312647</v>
+        <v>212.0807739312646</v>
       </c>
       <c r="Y44" t="n">
         <v>223.4773717274634</v>
@@ -4062,7 +4062,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E45" t="n">
-        <v>145.5577298436975</v>
+        <v>130.9922385581942</v>
       </c>
       <c r="F45" t="n">
         <v>133.3468600696244</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
         <v>151.2714921173871</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.59074985507911</v>
+        <v>15.59074985507908</v>
       </c>
       <c r="C46" t="n">
-        <v>1.790744700479593</v>
+        <v>1.790744700479564</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.101486003371576</v>
+        <v>1.101486003371548</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>45.4435998278924</v>
+        <v>45.44359982789237</v>
       </c>
       <c r="T46" t="n">
-        <v>64.71809851002104</v>
+        <v>64.71809851002101</v>
       </c>
       <c r="U46" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V46" t="n">
-        <v>91.9988862547047</v>
+        <v>91.99888625470467</v>
       </c>
       <c r="W46" t="n">
-        <v>117.165772325318</v>
+        <v>117.1657723253179</v>
       </c>
       <c r="X46" t="n">
-        <v>62.81087432112108</v>
+        <v>62.81087432112105</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.68574207718876</v>
+        <v>53.68574207718873</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1425.987247952809</v>
+        <v>869.7702003049387</v>
       </c>
       <c r="C2" t="n">
-        <v>1044.053489285617</v>
+        <v>869.7702003049387</v>
       </c>
       <c r="D2" t="n">
-        <v>671.2295245128403</v>
+        <v>869.7702003049387</v>
       </c>
       <c r="E2" t="n">
-        <v>465.7297962645347</v>
+        <v>869.7702003049387</v>
       </c>
       <c r="F2" t="n">
-        <v>51.57860557470506</v>
+        <v>455.6190096151091</v>
       </c>
       <c r="G2" t="n">
-        <v>39.51502306929709</v>
+        <v>39.51502306929708</v>
       </c>
       <c r="H2" t="n">
-        <v>39.51502306929709</v>
+        <v>39.51502306929708</v>
       </c>
       <c r="I2" t="n">
-        <v>39.51502306929709</v>
+        <v>39.51502306929708</v>
       </c>
       <c r="J2" t="n">
-        <v>111.5135673421028</v>
+        <v>111.5135673421027</v>
       </c>
       <c r="K2" t="n">
-        <v>351.6539393868856</v>
+        <v>228.7015208236798</v>
       </c>
       <c r="L2" t="n">
-        <v>699.5393124718319</v>
+        <v>576.5868939086261</v>
       </c>
       <c r="M2" t="n">
-        <v>969.8260601617148</v>
+        <v>969.8260601617139</v>
       </c>
       <c r="N2" t="n">
-        <v>1348.157418849431</v>
+        <v>1348.15741884943</v>
       </c>
       <c r="O2" t="n">
         <v>1653.162003322264</v>
@@ -4358,22 +4358,22 @@
         <v>1788.522178095208</v>
       </c>
       <c r="T2" t="n">
-        <v>1788.522178095208</v>
+        <v>1564.163231826219</v>
       </c>
       <c r="U2" t="n">
-        <v>1788.522178095208</v>
+        <v>1564.163231826219</v>
       </c>
       <c r="V2" t="n">
-        <v>1788.522178095208</v>
+        <v>1232.305130447338</v>
       </c>
       <c r="W2" t="n">
-        <v>1425.987247952809</v>
+        <v>869.7702003049387</v>
       </c>
       <c r="X2" t="n">
-        <v>1425.987247952809</v>
+        <v>869.7702003049387</v>
       </c>
       <c r="Y2" t="n">
-        <v>1425.987247952809</v>
+        <v>869.7702003049387</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>818.8899261180392</v>
+        <v>381.4297434391497</v>
       </c>
       <c r="C3" t="n">
-        <v>657.1862533589939</v>
+        <v>381.4297434391497</v>
       </c>
       <c r="D3" t="n">
-        <v>518.347616349206</v>
+        <v>242.5911064293617</v>
       </c>
       <c r="E3" t="n">
-        <v>371.3196064060772</v>
+        <v>242.5911064293617</v>
       </c>
       <c r="F3" t="n">
-        <v>236.6258083559515</v>
+        <v>107.8973083792361</v>
       </c>
       <c r="G3" t="n">
         <v>107.8973083792361</v>
@@ -4404,28 +4404,28 @@
         <v>107.8973083792361</v>
       </c>
       <c r="I3" t="n">
-        <v>39.51502306929709</v>
+        <v>39.51502306929708</v>
       </c>
       <c r="J3" t="n">
-        <v>99.76916960240324</v>
+        <v>39.51502306929708</v>
       </c>
       <c r="K3" t="n">
-        <v>329.2597221625919</v>
+        <v>269.0055756294857</v>
       </c>
       <c r="L3" t="n">
-        <v>695.0815673327076</v>
+        <v>634.6852431368601</v>
       </c>
       <c r="M3" t="n">
-        <v>1180.114920842934</v>
+        <v>634.6852431368601</v>
       </c>
       <c r="N3" t="n">
-        <v>1180.114920842934</v>
+        <v>1123.683653619411</v>
       </c>
       <c r="O3" t="n">
-        <v>1572.314871627085</v>
+        <v>1515.883604403562</v>
       </c>
       <c r="P3" t="n">
-        <v>1874.410790902782</v>
+        <v>1817.97952367926</v>
       </c>
       <c r="Q3" t="n">
         <v>1975.751153464854</v>
@@ -4437,22 +4437,22 @@
         <v>1763.16739757254</v>
       </c>
       <c r="T3" t="n">
-        <v>1574.482293738526</v>
+        <v>1574.482293738525</v>
       </c>
       <c r="U3" t="n">
-        <v>1574.482293738526</v>
+        <v>1355.987501336835</v>
       </c>
       <c r="V3" t="n">
-        <v>1346.08667118686</v>
+        <v>1172.603369459727</v>
       </c>
       <c r="W3" t="n">
-        <v>1346.08667118686</v>
+        <v>931.2875006930371</v>
       </c>
       <c r="X3" t="n">
-        <v>1148.169683064654</v>
+        <v>733.3705125708317</v>
       </c>
       <c r="Y3" t="n">
-        <v>978.3093688993001</v>
+        <v>540.8491862204105</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.8876682900233</v>
+        <v>39.51502306929708</v>
       </c>
       <c r="C4" t="n">
-        <v>198.8876682900233</v>
+        <v>39.51502306929708</v>
       </c>
       <c r="D4" t="n">
-        <v>198.8876682900233</v>
+        <v>39.51502306929708</v>
       </c>
       <c r="E4" t="n">
-        <v>198.8876682900233</v>
+        <v>39.51502306929708</v>
       </c>
       <c r="F4" t="n">
-        <v>198.8876682900233</v>
+        <v>39.51502306929708</v>
       </c>
       <c r="G4" t="n">
-        <v>198.8876682900233</v>
+        <v>39.51502306929708</v>
       </c>
       <c r="H4" t="n">
-        <v>39.51502306929709</v>
+        <v>39.51502306929708</v>
       </c>
       <c r="I4" t="n">
-        <v>39.51502306929709</v>
+        <v>39.51502306929708</v>
       </c>
       <c r="J4" t="n">
-        <v>39.51502306929709</v>
+        <v>39.51502306929708</v>
       </c>
       <c r="K4" t="n">
         <v>73.1192108139405</v>
@@ -4516,22 +4516,22 @@
         <v>571.5742683152296</v>
       </c>
       <c r="T4" t="n">
-        <v>571.5742683152296</v>
+        <v>338.3953151309084</v>
       </c>
       <c r="U4" t="n">
-        <v>485.0440697726241</v>
+        <v>338.3953151309084</v>
       </c>
       <c r="V4" t="n">
-        <v>485.0440697726241</v>
+        <v>77.66001068933105</v>
       </c>
       <c r="W4" t="n">
-        <v>198.8876682900233</v>
+        <v>77.66001068933105</v>
       </c>
       <c r="X4" t="n">
-        <v>198.8876682900233</v>
+        <v>77.66001068933105</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.8876682900233</v>
+        <v>77.66001068933105</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1322.085588857994</v>
+        <v>1415.266473616825</v>
       </c>
       <c r="C5" t="n">
-        <v>940.1518301908018</v>
+        <v>1033.332714949632</v>
       </c>
       <c r="D5" t="n">
-        <v>567.3278654180253</v>
+        <v>1033.332714949632</v>
       </c>
       <c r="E5" t="n">
-        <v>567.3278654180253</v>
+        <v>638.5469950557388</v>
       </c>
       <c r="F5" t="n">
-        <v>557.2170787685998</v>
+        <v>224.395804365909</v>
       </c>
       <c r="G5" t="n">
-        <v>545.1534962631918</v>
+        <v>212.3322218605011</v>
       </c>
       <c r="H5" t="n">
         <v>212.3322218605011</v>
       </c>
       <c r="I5" t="n">
-        <v>39.51502306929709</v>
+        <v>39.51502306929708</v>
       </c>
       <c r="J5" t="n">
-        <v>39.51502306929709</v>
+        <v>111.5135673421027</v>
       </c>
       <c r="K5" t="n">
-        <v>279.6553951140799</v>
+        <v>351.6539393868855</v>
       </c>
       <c r="L5" t="n">
-        <v>627.5407681990262</v>
+        <v>699.5393124718317</v>
       </c>
       <c r="M5" t="n">
-        <v>969.8260601617148</v>
+        <v>1092.77847872492</v>
       </c>
       <c r="N5" t="n">
-        <v>1348.157418849431</v>
+        <v>1471.109837412635</v>
       </c>
       <c r="O5" t="n">
-        <v>1653.162003322264</v>
+        <v>1747.594257008801</v>
       </c>
       <c r="P5" t="n">
-        <v>1881.318899778317</v>
+        <v>1975.751153464854</v>
       </c>
       <c r="Q5" t="n">
         <v>1975.751153464854</v>
@@ -4592,25 +4592,25 @@
         <v>1975.751153464854</v>
       </c>
       <c r="S5" t="n">
-        <v>1975.751153464854</v>
+        <v>1788.522178095208</v>
       </c>
       <c r="T5" t="n">
-        <v>1751.392207195866</v>
+        <v>1788.522178095208</v>
       </c>
       <c r="U5" t="n">
-        <v>1751.392207195866</v>
+        <v>1752.245747720883</v>
       </c>
       <c r="V5" t="n">
-        <v>1751.392207195866</v>
+        <v>1415.266473616825</v>
       </c>
       <c r="W5" t="n">
-        <v>1388.857277053467</v>
+        <v>1415.266473616825</v>
       </c>
       <c r="X5" t="n">
-        <v>1388.857277053467</v>
+        <v>1415.266473616825</v>
       </c>
       <c r="Y5" t="n">
-        <v>1322.085588857994</v>
+        <v>1415.266473616825</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>610.0961008691671</v>
+        <v>495.8376955458524</v>
       </c>
       <c r="C6" t="n">
-        <v>610.0961008691671</v>
+        <v>495.8376955458524</v>
       </c>
       <c r="D6" t="n">
-        <v>471.2574638593792</v>
+        <v>449.9653310392669</v>
       </c>
       <c r="E6" t="n">
-        <v>471.2574638593792</v>
+        <v>302.9373210961381</v>
       </c>
       <c r="F6" t="n">
-        <v>336.5636658092535</v>
+        <v>168.2435230460125</v>
       </c>
       <c r="G6" t="n">
-        <v>207.8351658325381</v>
+        <v>39.51502306929708</v>
       </c>
       <c r="H6" t="n">
-        <v>107.8973083792361</v>
+        <v>39.51502306929708</v>
       </c>
       <c r="I6" t="n">
-        <v>39.51502306929709</v>
+        <v>39.51502306929708</v>
       </c>
       <c r="J6" t="n">
-        <v>99.76916960240324</v>
+        <v>99.76916960240322</v>
       </c>
       <c r="K6" t="n">
-        <v>329.2597221625919</v>
+        <v>99.76916960240322</v>
       </c>
       <c r="L6" t="n">
-        <v>329.2597221625919</v>
+        <v>465.5910147725189</v>
       </c>
       <c r="M6" t="n">
-        <v>814.2930756728183</v>
+        <v>634.6852431368601</v>
       </c>
       <c r="N6" t="n">
-        <v>1123.683653619412</v>
+        <v>1123.683653619411</v>
       </c>
       <c r="O6" t="n">
-        <v>1515.883604403563</v>
+        <v>1515.883604403562</v>
       </c>
       <c r="P6" t="n">
         <v>1817.97952367926</v>
@@ -4674,22 +4674,22 @@
         <v>1763.16739757254</v>
       </c>
       <c r="T6" t="n">
-        <v>1574.482293738526</v>
+        <v>1574.482293738525</v>
       </c>
       <c r="U6" t="n">
-        <v>1355.987501336836</v>
+        <v>1355.987501336835</v>
       </c>
       <c r="V6" t="n">
-        <v>1241.850284108484</v>
+        <v>1127.591878785169</v>
       </c>
       <c r="W6" t="n">
-        <v>1000.534415341794</v>
+        <v>886.276010018479</v>
       </c>
       <c r="X6" t="n">
-        <v>802.6174272195883</v>
+        <v>688.3590218962736</v>
       </c>
       <c r="Y6" t="n">
-        <v>610.0961008691671</v>
+        <v>495.8376955458524</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>360.4437859401282</v>
+        <v>134.8622474187076</v>
       </c>
       <c r="C7" t="n">
-        <v>360.4437859401282</v>
+        <v>134.8622474187076</v>
       </c>
       <c r="D7" t="n">
-        <v>360.4437859401282</v>
+        <v>134.8622474187076</v>
       </c>
       <c r="E7" t="n">
-        <v>208.4347717014471</v>
+        <v>134.8622474187076</v>
       </c>
       <c r="F7" t="n">
-        <v>208.4347717014471</v>
+        <v>134.8622474187076</v>
       </c>
       <c r="G7" t="n">
-        <v>39.51502306929709</v>
+        <v>134.8622474187076</v>
       </c>
       <c r="H7" t="n">
-        <v>39.51502306929709</v>
+        <v>39.51502306929708</v>
       </c>
       <c r="I7" t="n">
-        <v>39.51502306929709</v>
+        <v>39.51502306929708</v>
       </c>
       <c r="J7" t="n">
-        <v>39.51502306929709</v>
+        <v>39.51502306929708</v>
       </c>
       <c r="K7" t="n">
         <v>73.1192108139405</v>
@@ -4756,19 +4756,19 @@
         <v>422.0524869296078</v>
       </c>
       <c r="U7" t="n">
-        <v>422.0524869296078</v>
+        <v>134.8622474187076</v>
       </c>
       <c r="V7" t="n">
-        <v>360.4437859401282</v>
+        <v>134.8622474187076</v>
       </c>
       <c r="W7" t="n">
-        <v>360.4437859401282</v>
+        <v>134.8622474187076</v>
       </c>
       <c r="X7" t="n">
-        <v>360.4437859401282</v>
+        <v>134.8622474187076</v>
       </c>
       <c r="Y7" t="n">
-        <v>360.4437859401282</v>
+        <v>134.8622474187076</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>468.2390292964369</v>
+        <v>831.8083099227024</v>
       </c>
       <c r="C8" t="n">
-        <v>468.2390292964369</v>
+        <v>831.8083099227024</v>
       </c>
       <c r="D8" t="n">
-        <v>468.2390292964369</v>
+        <v>458.984345149926</v>
       </c>
       <c r="E8" t="n">
-        <v>468.2390292964369</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="F8" t="n">
         <v>54.08783860660719</v>
@@ -4829,25 +4829,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>1913.983829690315</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T8" t="n">
-        <v>1689.624883421327</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U8" t="n">
-        <v>1689.624883421327</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="V8" t="n">
-        <v>1352.645609317268</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="W8" t="n">
-        <v>1352.645609317268</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="X8" t="n">
-        <v>970.6154688387612</v>
+        <v>1464.297328295449</v>
       </c>
       <c r="Y8" t="n">
-        <v>862.282568814456</v>
+        <v>1070.755472871287</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>461.879904359699</v>
+        <v>500.7765716002009</v>
       </c>
       <c r="C9" t="n">
-        <v>409.5292505410046</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="D9" t="n">
-        <v>270.6906135312166</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="E9" t="n">
-        <v>270.6906135312166</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="F9" t="n">
-        <v>270.6906135312166</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G9" t="n">
-        <v>141.9621135545012</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H9" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
@@ -4893,13 +4893,13 @@
         <v>1182.624153874836</v>
       </c>
       <c r="N9" t="n">
-        <v>1693.889799997958</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O9" t="n">
-        <v>2086.089750782109</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P9" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>55.64079773160731</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C10" t="n">
         <v>42.02425610119923</v>
@@ -4981,31 +4981,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="S10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="T10" t="n">
-        <v>574.0835013471317</v>
+        <v>302.3672068164996</v>
       </c>
       <c r="U10" t="n">
-        <v>286.8932618362315</v>
+        <v>302.3672068164996</v>
       </c>
       <c r="V10" t="n">
-        <v>286.8932618362315</v>
+        <v>302.3672068164996</v>
       </c>
       <c r="W10" t="n">
-        <v>286.8932618362315</v>
+        <v>273.2767202058235</v>
       </c>
       <c r="X10" t="n">
-        <v>55.64079773160731</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y10" t="n">
-        <v>55.64079773160731</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="11">
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1791.031039648928</v>
+        <v>1565.450471890001</v>
       </c>
       <c r="C11" t="n">
-        <v>1501.919965239344</v>
+        <v>1276.339397480417</v>
       </c>
       <c r="D11" t="n">
-        <v>1221.918684724177</v>
+        <v>996.3381169652498</v>
       </c>
       <c r="E11" t="n">
-        <v>919.9556490878927</v>
+        <v>694.3750813289656</v>
       </c>
       <c r="F11" t="n">
-        <v>598.6271426556719</v>
+        <v>694.3750813289656</v>
       </c>
       <c r="G11" t="n">
-        <v>275.345840367469</v>
+        <v>371.0937790407626</v>
       </c>
       <c r="H11" t="n">
-        <v>131.0951888956807</v>
+        <v>131.0951888956808</v>
       </c>
       <c r="I11" t="n">
         <v>51.10067436208575</v>
       </c>
       <c r="J11" t="n">
-        <v>123.0992186348914</v>
+        <v>201.8007338166326</v>
       </c>
       <c r="K11" t="n">
-        <v>454.2151035205568</v>
+        <v>532.9166187022979</v>
       </c>
       <c r="L11" t="n">
-        <v>893.0759894463856</v>
+        <v>971.7775046281267</v>
       </c>
       <c r="M11" t="n">
-        <v>1286.315155699474</v>
+        <v>1365.016670881215</v>
       </c>
       <c r="N11" t="n">
-        <v>1743.348029568931</v>
+        <v>1834.323542409813</v>
       </c>
       <c r="O11" t="n">
-        <v>2048.352614041764</v>
+        <v>2139.328126882647</v>
       </c>
       <c r="P11" t="n">
         <v>2367.4850233387</v>
@@ -5069,22 +5069,22 @@
         <v>2555.033718104288</v>
       </c>
       <c r="T11" t="n">
-        <v>2555.033718104288</v>
+        <v>2423.497456092908</v>
       </c>
       <c r="U11" t="n">
-        <v>2392.971066075891</v>
+        <v>2423.497456092908</v>
       </c>
       <c r="V11" t="n">
-        <v>2392.971066075891</v>
+        <v>2423.497456092908</v>
       </c>
       <c r="W11" t="n">
-        <v>2392.971066075891</v>
+        <v>2153.785210208118</v>
       </c>
       <c r="X11" t="n">
-        <v>2392.971066075891</v>
+        <v>1866.169643056554</v>
       </c>
       <c r="Y11" t="n">
-        <v>2092.251894909338</v>
+        <v>1565.450471890001</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040259</v>
       </c>
       <c r="C12" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449806</v>
       </c>
       <c r="D12" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351927</v>
       </c>
       <c r="E12" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920639</v>
       </c>
       <c r="F12" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419383</v>
       </c>
       <c r="G12" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652228</v>
       </c>
       <c r="H12" t="n">
         <v>119.4829596720248</v>
@@ -5142,28 +5142,28 @@
         <v>2555.033718104288</v>
       </c>
       <c r="R12" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S12" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211974</v>
       </c>
       <c r="T12" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U12" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V12" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W12" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X12" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535708</v>
       </c>
       <c r="Y12" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185287</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>237.0861742209033</v>
+        <v>73.13288309078055</v>
       </c>
       <c r="C13" t="n">
-        <v>237.0861742209033</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="D13" t="n">
-        <v>176.8369653062751</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="E13" t="n">
-        <v>117.6506353252029</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="F13" t="n">
-        <v>117.6506353252029</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="G13" t="n">
-        <v>117.6506353252029</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="H13" t="n">
         <v>51.10067436208575</v>
@@ -5197,52 +5197,52 @@
         <v>51.10067436208575</v>
       </c>
       <c r="J13" t="n">
-        <v>83.21408766499906</v>
+        <v>83.214087664999</v>
       </c>
       <c r="K13" t="n">
-        <v>207.7937882505252</v>
+        <v>207.7937882505249</v>
       </c>
       <c r="L13" t="n">
-        <v>399.3763804916673</v>
+        <v>399.376380491667</v>
       </c>
       <c r="M13" t="n">
-        <v>608.3453994601516</v>
+        <v>608.3453994601513</v>
       </c>
       <c r="N13" t="n">
-        <v>817.7432540506345</v>
+        <v>817.7432540506342</v>
       </c>
       <c r="O13" t="n">
-        <v>1007.182413387207</v>
+        <v>1007.182413387206</v>
       </c>
       <c r="P13" t="n">
         <v>1161.126409956227</v>
       </c>
       <c r="Q13" t="n">
-        <v>1214.331474543591</v>
+        <v>1214.33147454359</v>
       </c>
       <c r="R13" t="n">
-        <v>1214.331474543591</v>
+        <v>1157.632377415577</v>
       </c>
       <c r="S13" t="n">
-        <v>1093.444396204887</v>
+        <v>1036.745299076874</v>
       </c>
       <c r="T13" t="n">
-        <v>953.0881272781747</v>
+        <v>896.3890301501613</v>
       </c>
       <c r="U13" t="n">
-        <v>758.7205720248837</v>
+        <v>702.0214748968701</v>
       </c>
       <c r="V13" t="n">
-        <v>590.8079518409153</v>
+        <v>534.1088547129017</v>
       </c>
       <c r="W13" t="n">
-        <v>397.4742346159234</v>
+        <v>340.7751374879098</v>
       </c>
       <c r="X13" t="n">
-        <v>397.4742346159234</v>
+        <v>202.3453576408945</v>
       </c>
       <c r="Y13" t="n">
-        <v>327.8188586476741</v>
+        <v>73.13288309078055</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1304.81466217077</v>
+        <v>1589.894774123753</v>
       </c>
       <c r="C14" t="n">
-        <v>1015.703587761186</v>
+        <v>1300.78369971417</v>
       </c>
       <c r="D14" t="n">
-        <v>1015.703587761186</v>
+        <v>1300.78369971417</v>
       </c>
       <c r="E14" t="n">
-        <v>1015.703587761186</v>
+        <v>998.8206640778858</v>
       </c>
       <c r="F14" t="n">
-        <v>694.3750813289655</v>
+        <v>677.4921576456652</v>
       </c>
       <c r="G14" t="n">
-        <v>371.0937790407625</v>
+        <v>354.210855357462</v>
       </c>
       <c r="H14" t="n">
-        <v>131.0951888956807</v>
+        <v>114.2122652123804</v>
       </c>
       <c r="I14" t="n">
         <v>51.10067436208575</v>
@@ -5279,22 +5279,22 @@
         <v>214.074731475774</v>
       </c>
       <c r="K14" t="n">
-        <v>454.2151035205567</v>
+        <v>545.1906163614393</v>
       </c>
       <c r="L14" t="n">
-        <v>882.9429200254126</v>
+        <v>984.051502287268</v>
       </c>
       <c r="M14" t="n">
-        <v>1276.1820862785</v>
+        <v>1377.290668540356</v>
       </c>
       <c r="N14" t="n">
-        <v>1745.488957807099</v>
+        <v>1846.597540068954</v>
       </c>
       <c r="O14" t="n">
-        <v>2050.493542279933</v>
+        <v>2151.602124541788</v>
       </c>
       <c r="P14" t="n">
-        <v>2369.625951576868</v>
+        <v>2460.601464417751</v>
       </c>
       <c r="Q14" t="n">
         <v>2555.033718104288</v>
@@ -5303,25 +5303,25 @@
         <v>2555.033718104288</v>
       </c>
       <c r="S14" t="n">
-        <v>2460.627426992251</v>
+        <v>2555.033718104288</v>
       </c>
       <c r="T14" t="n">
-        <v>2329.091164980871</v>
+        <v>2555.033718104288</v>
       </c>
       <c r="U14" t="n">
-        <v>2329.091164980871</v>
+        <v>2392.971066075891</v>
       </c>
       <c r="V14" t="n">
-        <v>2084.934575134421</v>
+        <v>2148.814476229441</v>
       </c>
       <c r="W14" t="n">
-        <v>2084.934575134421</v>
+        <v>1879.102230344651</v>
       </c>
       <c r="X14" t="n">
-        <v>1906.754688597733</v>
+        <v>1589.894774123753</v>
       </c>
       <c r="Y14" t="n">
-        <v>1606.03551743118</v>
+        <v>1589.894774123753</v>
       </c>
     </row>
     <row r="15">
@@ -5331,40 +5331,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040259</v>
       </c>
       <c r="C15" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449806</v>
       </c>
       <c r="D15" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351927</v>
       </c>
       <c r="E15" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920639</v>
       </c>
       <c r="F15" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419383</v>
       </c>
       <c r="G15" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652228</v>
       </c>
       <c r="H15" t="n">
-        <v>119.4829596720248</v>
+        <v>104.7703422119209</v>
       </c>
       <c r="I15" t="n">
         <v>51.10067436208575</v>
       </c>
       <c r="J15" t="n">
-        <v>111.3548208951929</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K15" t="n">
-        <v>340.8453734553815</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L15" t="n">
-        <v>706.6672186254972</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M15" t="n">
-        <v>1191.700572135724</v>
+        <v>1191.700572135723</v>
       </c>
       <c r="N15" t="n">
         <v>1702.966218258846</v>
@@ -5397,10 +5397,10 @@
         <v>1465.558574657913</v>
       </c>
       <c r="X15" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535708</v>
       </c>
       <c r="Y15" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185287</v>
       </c>
     </row>
     <row r="16">
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>250.0424530611389</v>
+        <v>111.612673214124</v>
       </c>
       <c r="C16" t="n">
-        <v>173.2491677804282</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="D16" t="n">
-        <v>112.9999588657999</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="E16" t="n">
-        <v>53.81362888472768</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="F16" t="n">
-        <v>53.81362888472768</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="G16" t="n">
         <v>51.10067436208575</v>
@@ -5434,25 +5434,25 @@
         <v>51.10067436208575</v>
       </c>
       <c r="J16" t="n">
-        <v>83.214087664999</v>
+        <v>83.21408766499917</v>
       </c>
       <c r="K16" t="n">
-        <v>207.793788250525</v>
+        <v>207.7937882505252</v>
       </c>
       <c r="L16" t="n">
-        <v>399.376380491667</v>
+        <v>399.3763804916672</v>
       </c>
       <c r="M16" t="n">
-        <v>608.3453994601512</v>
+        <v>608.3453994601515</v>
       </c>
       <c r="N16" t="n">
-        <v>817.7432540506338</v>
+        <v>817.7432540506344</v>
       </c>
       <c r="O16" t="n">
-        <v>1007.182413387206</v>
+        <v>1007.182413387207</v>
       </c>
       <c r="P16" t="n">
-        <v>1161.126409956226</v>
+        <v>1161.126409956227</v>
       </c>
       <c r="Q16" t="n">
         <v>1214.33147454359</v>
@@ -5461,25 +5461,25 @@
         <v>1157.632377415577</v>
       </c>
       <c r="S16" t="n">
-        <v>1036.745299076873</v>
+        <v>1036.745299076874</v>
       </c>
       <c r="T16" t="n">
-        <v>896.389030150161</v>
+        <v>896.3890301501616</v>
       </c>
       <c r="U16" t="n">
-        <v>702.0214748968699</v>
+        <v>702.0214748968705</v>
       </c>
       <c r="V16" t="n">
-        <v>534.1088547129016</v>
+        <v>534.108854712902</v>
       </c>
       <c r="W16" t="n">
-        <v>340.7751374879098</v>
+        <v>340.7751374879101</v>
       </c>
       <c r="X16" t="n">
-        <v>340.7751374879098</v>
+        <v>202.3453576408949</v>
       </c>
       <c r="Y16" t="n">
-        <v>340.7751374879098</v>
+        <v>202.3453576408949</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1361.887812572759</v>
+        <v>1361.88781257276</v>
       </c>
       <c r="C17" t="n">
-        <v>1147.761190413098</v>
+        <v>1147.761190413099</v>
       </c>
       <c r="D17" t="n">
-        <v>942.744362147854</v>
+        <v>942.7443621478551</v>
       </c>
       <c r="E17" t="n">
         <v>715.765778761493</v>
@@ -5513,25 +5513,25 @@
         <v>51.10067436208575</v>
       </c>
       <c r="J17" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K17" t="n">
-        <v>479.0485364810492</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L17" t="n">
-        <v>826.9339095659955</v>
+        <v>875.5927382556529</v>
       </c>
       <c r="M17" t="n">
-        <v>1220.173075819083</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N17" t="n">
-        <v>1762.972208997831</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O17" t="n">
-        <v>2067.976793470665</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P17" t="n">
-        <v>2296.133689926718</v>
+        <v>2460.601464417751</v>
       </c>
       <c r="Q17" t="n">
         <v>2555.033718104288</v>
@@ -5552,13 +5552,13 @@
         <v>2222.809732105718</v>
       </c>
       <c r="W17" t="n">
-        <v>2028.081938470849</v>
+        <v>2028.081938470851</v>
       </c>
       <c r="X17" t="n">
-        <v>1813.858934499875</v>
+        <v>1813.858934499876</v>
       </c>
       <c r="Y17" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040259</v>
       </c>
       <c r="C18" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449806</v>
       </c>
       <c r="D18" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351927</v>
       </c>
       <c r="E18" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920639</v>
       </c>
       <c r="F18" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419383</v>
       </c>
       <c r="G18" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652228</v>
       </c>
       <c r="H18" t="n">
         <v>119.4829596720248</v>
@@ -5592,25 +5592,25 @@
         <v>51.10067436208575</v>
       </c>
       <c r="J18" t="n">
-        <v>111.3548208951929</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K18" t="n">
-        <v>340.8453734553815</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L18" t="n">
-        <v>706.6672186254972</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M18" t="n">
-        <v>1191.700572135724</v>
+        <v>1191.700572135723</v>
       </c>
       <c r="N18" t="n">
-        <v>1702.966218258846</v>
+        <v>1702.966218258845</v>
       </c>
       <c r="O18" t="n">
         <v>2095.166169042996</v>
       </c>
       <c r="P18" t="n">
-        <v>2397.262088318694</v>
+        <v>2397.262088318693</v>
       </c>
       <c r="Q18" t="n">
         <v>2555.033718104288</v>
@@ -5619,25 +5619,25 @@
         <v>2495.249449199233</v>
       </c>
       <c r="S18" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211974</v>
       </c>
       <c r="T18" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U18" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V18" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W18" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X18" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535708</v>
       </c>
       <c r="Y18" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185287</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54.02211951749092</v>
+        <v>52.90950739287319</v>
       </c>
       <c r="C19" t="n">
-        <v>52.21328648670348</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="D19" t="n">
-        <v>52.21328648670348</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="E19" t="n">
-        <v>52.21328648670348</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="F19" t="n">
         <v>52.21328648670348</v>
@@ -5671,52 +5671,52 @@
         <v>51.10067436208575</v>
       </c>
       <c r="J19" t="n">
-        <v>51.10067436208575</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="K19" t="n">
-        <v>130.9236227683826</v>
+        <v>129.8110106437649</v>
       </c>
       <c r="L19" t="n">
-        <v>231.5307021686421</v>
+        <v>230.4180900440244</v>
       </c>
       <c r="M19" t="n">
-        <v>349.5242082962438</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N19" t="n">
-        <v>467.9465500458442</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O19" t="n">
-        <v>566.4101965415339</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P19" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q19" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R19" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S19" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T19" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U19" t="n">
-        <v>398.7211345007349</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V19" t="n">
-        <v>305.7929665666898</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W19" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X19" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="20">
@@ -5750,28 +5750,28 @@
         <v>51.10067436208575</v>
       </c>
       <c r="J20" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K20" t="n">
-        <v>363.2395906796742</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L20" t="n">
-        <v>875.5927382556528</v>
+        <v>875.5927382556529</v>
       </c>
       <c r="M20" t="n">
-        <v>1384.640850310116</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N20" t="n">
-        <v>1762.972208997831</v>
+        <v>1811.631037687489</v>
       </c>
       <c r="O20" t="n">
-        <v>2067.976793470665</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P20" t="n">
-        <v>2460.601464417751</v>
+        <v>2384.968274529433</v>
       </c>
       <c r="Q20" t="n">
-        <v>2555.033718104288</v>
+        <v>2479.40052821597</v>
       </c>
       <c r="R20" t="n">
         <v>2555.033718104288</v>
@@ -5805,31 +5805,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040259</v>
       </c>
       <c r="C21" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449806</v>
       </c>
       <c r="D21" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351927</v>
       </c>
       <c r="E21" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920639</v>
       </c>
       <c r="F21" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419383</v>
       </c>
       <c r="G21" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652228</v>
       </c>
       <c r="H21" t="n">
-        <v>119.4829596720248</v>
+        <v>104.7703422119209</v>
       </c>
       <c r="I21" t="n">
         <v>51.10067436208575</v>
       </c>
       <c r="J21" t="n">
-        <v>111.3548208951919</v>
+        <v>111.3548208951929</v>
       </c>
       <c r="K21" t="n">
         <v>340.8453734553815</v>
@@ -5865,16 +5865,16 @@
         <v>1935.270065976269</v>
       </c>
       <c r="V21" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W21" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X21" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535708</v>
       </c>
       <c r="Y21" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185287</v>
       </c>
     </row>
     <row r="22">
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>54.02211951749092</v>
+        <v>52.90950739287319</v>
       </c>
       <c r="C22" t="n">
-        <v>52.21328648670348</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="D22" t="n">
-        <v>52.21328648670348</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="E22" t="n">
-        <v>52.21328648670348</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="F22" t="n">
         <v>52.21328648670348</v>
@@ -5902,58 +5902,58 @@
         <v>51.10067436208575</v>
       </c>
       <c r="H22" t="n">
-        <v>51.10067436208575</v>
+        <v>59.3673192722844</v>
       </c>
       <c r="I22" t="n">
-        <v>51.10067436208575</v>
+        <v>59.3673192722844</v>
       </c>
       <c r="J22" t="n">
-        <v>51.10067436208575</v>
+        <v>59.3673192722844</v>
       </c>
       <c r="K22" t="n">
-        <v>84.70486210672917</v>
+        <v>92.97150701692782</v>
       </c>
       <c r="L22" t="n">
-        <v>185.3119415069887</v>
+        <v>230.4180900440244</v>
       </c>
       <c r="M22" t="n">
-        <v>303.3054476345904</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N22" t="n">
-        <v>421.7277893841908</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O22" t="n">
-        <v>520.1914358798805</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P22" t="n">
-        <v>583.1599196080183</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q22" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R22" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S22" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T22" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U22" t="n">
-        <v>398.7211345007349</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V22" t="n">
-        <v>305.7929665666898</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W22" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X22" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="23">
@@ -5987,25 +5987,25 @@
         <v>51.10067436208573</v>
       </c>
       <c r="J23" t="n">
-        <v>163.2749745479471</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K23" t="n">
-        <v>567.8831210837623</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L23" t="n">
-        <v>915.7684941687085</v>
+        <v>875.5927382556529</v>
       </c>
       <c r="M23" t="n">
-        <v>1309.007660421796</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N23" t="n">
-        <v>1687.339019109512</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O23" t="n">
-        <v>2156.811378073378</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P23" t="n">
-        <v>2384.968274529432</v>
+        <v>2344.792518616376</v>
       </c>
       <c r="Q23" t="n">
         <v>2479.400528215969</v>
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C24" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D24" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E24" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F24" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G24" t="n">
         <v>219.4208171253267</v>
@@ -6105,13 +6105,13 @@
         <v>1706.874443424603</v>
       </c>
       <c r="W24" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X24" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y24" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="25">
@@ -6157,7 +6157,7 @@
         <v>303.3054476345904</v>
       </c>
       <c r="N25" t="n">
-        <v>421.7277893841908</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O25" t="n">
         <v>566.4101965415339</v>
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1638.398690093982</v>
+        <v>1638.398690093981</v>
       </c>
       <c r="C26" t="n">
         <v>1386.425607044545</v>
@@ -6209,28 +6209,28 @@
         <v>1143.562317889524</v>
       </c>
       <c r="E26" t="n">
-        <v>878.7372736133869</v>
+        <v>878.7372736133871</v>
       </c>
       <c r="F26" t="n">
-        <v>594.5467585413132</v>
+        <v>594.5467585413135</v>
       </c>
       <c r="G26" t="n">
-        <v>308.4034476132572</v>
+        <v>308.4034476132574</v>
       </c>
       <c r="H26" t="n">
-        <v>105.5428488283225</v>
+        <v>105.5428488283224</v>
       </c>
       <c r="I26" t="n">
-        <v>62.68632565487441</v>
+        <v>62.68632565487442</v>
       </c>
       <c r="J26" t="n">
-        <v>216.9651972767768</v>
+        <v>262.0593281006427</v>
       </c>
       <c r="K26" t="n">
-        <v>584.4800274945222</v>
+        <v>629.5741583183881</v>
       </c>
       <c r="L26" t="n">
-        <v>1059.739858752431</v>
+        <v>1104.833989576297</v>
       </c>
       <c r="M26" t="n">
         <v>1580.353483178482</v>
@@ -6245,13 +6245,13 @@
         <v>2873.969697313973</v>
       </c>
       <c r="Q26" t="n">
-        <v>3095.776409173472</v>
+        <v>3095.776409173473</v>
       </c>
       <c r="R26" t="n">
-        <v>3134.31628274372</v>
+        <v>3134.316282743721</v>
       </c>
       <c r="S26" t="n">
-        <v>3077.04798299183</v>
+        <v>3077.047982991831</v>
       </c>
       <c r="T26" t="n">
         <v>2982.649712340597</v>
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.9990861569185</v>
+        <v>927.2864686968139</v>
       </c>
       <c r="C27" t="n">
-        <v>780.2954133978732</v>
+        <v>765.5827959377687</v>
       </c>
       <c r="D27" t="n">
-        <v>641.4567763880852</v>
+        <v>626.7441589279807</v>
       </c>
       <c r="E27" t="n">
-        <v>494.4287664449565</v>
+        <v>479.7161489848519</v>
       </c>
       <c r="F27" t="n">
-        <v>359.7349683948308</v>
+        <v>345.0223509347263</v>
       </c>
       <c r="G27" t="n">
-        <v>231.0064684181154</v>
+        <v>216.2938509580109</v>
       </c>
       <c r="H27" t="n">
-        <v>131.0686109648134</v>
+        <v>116.3559935047089</v>
       </c>
       <c r="I27" t="n">
-        <v>62.68632565487441</v>
+        <v>62.68632565487442</v>
       </c>
       <c r="J27" t="n">
         <v>122.9404721879806</v>
@@ -6336,19 +6336,19 @@
         <v>2165.350509670747</v>
       </c>
       <c r="U27" t="n">
-        <v>1961.568334729162</v>
+        <v>1946.855717269057</v>
       </c>
       <c r="V27" t="n">
-        <v>1733.172712177496</v>
+        <v>1718.460094717391</v>
       </c>
       <c r="W27" t="n">
-        <v>1491.856843410806</v>
+        <v>1477.144225950701</v>
       </c>
       <c r="X27" t="n">
-        <v>1293.9398552886</v>
+        <v>1279.227237828496</v>
       </c>
       <c r="Y27" t="n">
-        <v>1101.418528938179</v>
+        <v>1086.705911478075</v>
       </c>
     </row>
     <row r="28">
@@ -6358,49 +6358,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>252.6345665042415</v>
+        <v>252.6345665042413</v>
       </c>
       <c r="C28" t="n">
-        <v>212.9792725836777</v>
+        <v>212.9792725836776</v>
       </c>
       <c r="D28" t="n">
-        <v>189.8680550291964</v>
+        <v>189.8680550291963</v>
       </c>
       <c r="E28" t="n">
-        <v>167.8197164082712</v>
+        <v>167.8197164082711</v>
       </c>
       <c r="F28" t="n">
         <v>145.2997370518042</v>
       </c>
       <c r="G28" t="n">
-        <v>106.3406640374102</v>
+        <v>106.3406640374101</v>
       </c>
       <c r="H28" t="n">
-        <v>76.92869443443995</v>
+        <v>76.92869443443993</v>
       </c>
       <c r="I28" t="n">
-        <v>62.68632565487441</v>
+        <v>62.68632565487442</v>
       </c>
       <c r="J28" t="n">
-        <v>62.68632565487441</v>
+        <v>62.68632565487442</v>
       </c>
       <c r="K28" t="n">
-        <v>223.6649715724804</v>
+        <v>96.29051339951783</v>
       </c>
       <c r="L28" t="n">
-        <v>451.6465091457025</v>
+        <v>280.7485576031378</v>
       </c>
       <c r="M28" t="n">
-        <v>615.7205318231458</v>
+        <v>398.7420637307396</v>
       </c>
       <c r="N28" t="n">
-        <v>861.5173317457088</v>
+        <v>644.5388636533025</v>
       </c>
       <c r="O28" t="n">
-        <v>1087.355436414361</v>
+        <v>870.3769683219548</v>
       </c>
       <c r="P28" t="n">
-        <v>1150.323920142499</v>
+        <v>1060.719910223055</v>
       </c>
       <c r="Q28" t="n">
         <v>1150.323920142499</v>
@@ -6412,22 +6412,22 @@
         <v>1047.013727396076</v>
       </c>
       <c r="T28" t="n">
-        <v>943.7954498295112</v>
+        <v>943.7954498295109</v>
       </c>
       <c r="U28" t="n">
-        <v>786.5658859363671</v>
+        <v>786.5658859363667</v>
       </c>
       <c r="V28" t="n">
-        <v>655.7912571125456</v>
+        <v>655.7912571125453</v>
       </c>
       <c r="W28" t="n">
-        <v>499.5955312477007</v>
+        <v>499.5955312477004</v>
       </c>
       <c r="X28" t="n">
-        <v>398.3037427608324</v>
+        <v>398.3037427608321</v>
       </c>
       <c r="Y28" t="n">
-        <v>306.2292595708654</v>
+        <v>306.2292595708652</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1638.398690093981</v>
+        <v>1638.398690093982</v>
       </c>
       <c r="C29" t="n">
-        <v>1386.425607044545</v>
+        <v>1386.425607044546</v>
       </c>
       <c r="D29" t="n">
-        <v>1143.562317889524</v>
+        <v>1143.562317889525</v>
       </c>
       <c r="E29" t="n">
-        <v>878.7372736133872</v>
+        <v>878.7372736133881</v>
       </c>
       <c r="F29" t="n">
-        <v>594.5467585413135</v>
+        <v>594.5467585413144</v>
       </c>
       <c r="G29" t="n">
-        <v>308.4034476132574</v>
+        <v>308.4034476132583</v>
       </c>
       <c r="H29" t="n">
         <v>105.5428488283224</v>
       </c>
       <c r="I29" t="n">
-        <v>62.6863256548744</v>
+        <v>62.68632565487442</v>
       </c>
       <c r="J29" t="n">
         <v>262.0593281006427</v>
@@ -6467,46 +6467,46 @@
         <v>629.5741583183881</v>
       </c>
       <c r="L29" t="n">
-        <v>1059.739858752431</v>
+        <v>1104.833989576297</v>
       </c>
       <c r="M29" t="n">
-        <v>1580.353483178481</v>
+        <v>1625.447614002348</v>
       </c>
       <c r="N29" t="n">
-        <v>2086.05930003916</v>
+        <v>2131.153430863026</v>
       </c>
       <c r="O29" t="n">
-        <v>2518.438342684956</v>
+        <v>2563.532473508822</v>
       </c>
       <c r="P29" t="n">
-        <v>2873.969697313972</v>
+        <v>2919.063828137838</v>
       </c>
       <c r="Q29" t="n">
-        <v>3095.776409173472</v>
+        <v>3095.776409173473</v>
       </c>
       <c r="R29" t="n">
-        <v>3134.31628274372</v>
+        <v>3134.316282743721</v>
       </c>
       <c r="S29" t="n">
-        <v>3077.04798299183</v>
+        <v>3077.047982991831</v>
       </c>
       <c r="T29" t="n">
-        <v>2982.649712340597</v>
+        <v>2982.649712340598</v>
       </c>
       <c r="U29" t="n">
-        <v>2857.725051672347</v>
+        <v>2857.725051672348</v>
       </c>
       <c r="V29" t="n">
-        <v>2650.706453186044</v>
+        <v>2650.706453186045</v>
       </c>
       <c r="W29" t="n">
-        <v>2418.132198661401</v>
+        <v>2418.132198661402</v>
       </c>
       <c r="X29" t="n">
-        <v>2166.062733800651</v>
+        <v>2166.062733800652</v>
       </c>
       <c r="Y29" t="n">
-        <v>1902.481553994244</v>
+        <v>1902.481553994245</v>
       </c>
     </row>
     <row r="30">
@@ -6537,10 +6537,10 @@
         <v>131.0686109648134</v>
       </c>
       <c r="I30" t="n">
-        <v>62.6863256548744</v>
+        <v>62.68632565487442</v>
       </c>
       <c r="J30" t="n">
-        <v>122.9404721879805</v>
+        <v>122.9404721879806</v>
       </c>
       <c r="K30" t="n">
         <v>352.4310247481692</v>
@@ -6564,22 +6564,22 @@
         <v>2566.619369397076</v>
       </c>
       <c r="R30" t="n">
-        <v>2506.835100492021</v>
+        <v>2521.547717952126</v>
       </c>
       <c r="S30" t="n">
-        <v>2354.035613504762</v>
+        <v>2368.748230964866</v>
       </c>
       <c r="T30" t="n">
-        <v>2165.350509670747</v>
+        <v>2180.063127130852</v>
       </c>
       <c r="U30" t="n">
-        <v>1946.855717269057</v>
+        <v>1961.568334729162</v>
       </c>
       <c r="V30" t="n">
-        <v>1718.460094717391</v>
+        <v>1733.172712177496</v>
       </c>
       <c r="W30" t="n">
-        <v>1477.144225950701</v>
+        <v>1491.856843410806</v>
       </c>
       <c r="X30" t="n">
         <v>1293.9398552886</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>252.6345665042411</v>
+        <v>252.6345665042413</v>
       </c>
       <c r="C31" t="n">
-        <v>212.9792725836774</v>
+        <v>212.9792725836776</v>
       </c>
       <c r="D31" t="n">
-        <v>189.8680550291961</v>
+        <v>189.8680550291963</v>
       </c>
       <c r="E31" t="n">
-        <v>167.8197164082709</v>
+        <v>167.8197164082711</v>
       </c>
       <c r="F31" t="n">
-        <v>145.299737051804</v>
+        <v>145.2997370518042</v>
       </c>
       <c r="G31" t="n">
         <v>106.3406640374101</v>
       </c>
       <c r="H31" t="n">
-        <v>76.92869443443988</v>
+        <v>76.92869443443993</v>
       </c>
       <c r="I31" t="n">
-        <v>62.6863256548744</v>
+        <v>62.68632565487442</v>
       </c>
       <c r="J31" t="n">
-        <v>131.1986842898677</v>
+        <v>108.7668422047156</v>
       </c>
       <c r="K31" t="n">
-        <v>269.7454881223208</v>
+        <v>269.7454881223216</v>
       </c>
       <c r="L31" t="n">
-        <v>370.3525675225803</v>
+        <v>497.7270256955437</v>
       </c>
       <c r="M31" t="n">
-        <v>615.7205318231447</v>
+        <v>743.0949899961081</v>
       </c>
       <c r="N31" t="n">
-        <v>861.5173317457078</v>
+        <v>861.5173317457085</v>
       </c>
       <c r="O31" t="n">
-        <v>959.9809782413975</v>
+        <v>959.9809782413981</v>
       </c>
       <c r="P31" t="n">
-        <v>1150.323920142498</v>
+        <v>1150.323920142499</v>
       </c>
       <c r="Q31" t="n">
-        <v>1150.323920142498</v>
+        <v>1150.323920142499</v>
       </c>
       <c r="R31" t="n">
-        <v>1130.762814374632</v>
+        <v>1130.762814374633</v>
       </c>
       <c r="S31" t="n">
         <v>1047.013727396076</v>
       </c>
       <c r="T31" t="n">
-        <v>943.7954498295105</v>
+        <v>943.7954498295109</v>
       </c>
       <c r="U31" t="n">
-        <v>786.5658859363664</v>
+        <v>786.5658859363667</v>
       </c>
       <c r="V31" t="n">
-        <v>655.7912571125449</v>
+        <v>655.7912571125453</v>
       </c>
       <c r="W31" t="n">
-        <v>499.5955312477001</v>
+        <v>499.5955312477004</v>
       </c>
       <c r="X31" t="n">
-        <v>398.3037427608318</v>
+        <v>398.3037427608321</v>
       </c>
       <c r="Y31" t="n">
-        <v>306.2292595708649</v>
+        <v>306.2292595708652</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>60.17709262297227</v>
       </c>
       <c r="J32" t="n">
-        <v>132.1756368957779</v>
+        <v>267.5838060976603</v>
       </c>
       <c r="K32" t="n">
-        <v>507.7241781424431</v>
+        <v>584.7641524980272</v>
       </c>
       <c r="L32" t="n">
-        <v>991.0177204292718</v>
+        <v>1068.057694784856</v>
       </c>
       <c r="M32" t="n">
-        <v>1519.665055884242</v>
+        <v>1596.705030239826</v>
       </c>
       <c r="N32" t="n">
-        <v>2033.40458377384</v>
+        <v>2110.444558129424</v>
       </c>
       <c r="O32" t="n">
-        <v>2473.817337448557</v>
+        <v>2550.857311804141</v>
       </c>
       <c r="P32" t="n">
-        <v>2837.382403106492</v>
+        <v>2914.422377462076</v>
       </c>
       <c r="Q32" t="n">
-        <v>2962.281046549445</v>
+        <v>3008.854631148613</v>
       </c>
       <c r="R32" t="n">
         <v>3008.854631148613</v>
@@ -6862,19 +6862,19 @@
         <v>170.3273500315288</v>
       </c>
       <c r="L34" t="n">
-        <v>348.0011241383837</v>
+        <v>385.771572391903</v>
       </c>
       <c r="M34" t="n">
-        <v>465.9946302659854</v>
+        <v>639.1732477213872</v>
       </c>
       <c r="N34" t="n">
-        <v>719.8251412174682</v>
+        <v>757.5955894709875</v>
       </c>
       <c r="O34" t="n">
-        <v>818.2887877131578</v>
+        <v>856.0592359666772</v>
       </c>
       <c r="P34" t="n">
-        <v>1016.665440643178</v>
+        <v>919.027719694815</v>
       </c>
       <c r="Q34" t="n">
         <v>1016.665440643178</v>
@@ -6935,28 +6935,28 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J35" t="n">
-        <v>287.5669931259238</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K35" t="n">
-        <v>643.5163109720805</v>
+        <v>403.4153465927301</v>
       </c>
       <c r="L35" t="n">
-        <v>1155.869458548059</v>
+        <v>915.7684941687087</v>
       </c>
       <c r="M35" t="n">
-        <v>1549.108624801147</v>
+        <v>1309.007660421797</v>
       </c>
       <c r="N35" t="n">
-        <v>1927.439983488863</v>
+        <v>1851.806793600545</v>
       </c>
       <c r="O35" t="n">
-        <v>2232.444567961697</v>
+        <v>2156.811378073378</v>
       </c>
       <c r="P35" t="n">
-        <v>2460.60146441775</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q35" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R35" t="n">
         <v>2555.033718104287</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.90950739287318</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C37" t="n">
+        <v>52.21328648670347</v>
+      </c>
+      <c r="D37" t="n">
+        <v>52.21328648670347</v>
+      </c>
+      <c r="E37" t="n">
+        <v>52.21328648670347</v>
+      </c>
+      <c r="F37" t="n">
+        <v>52.21328648670347</v>
+      </c>
+      <c r="G37" t="n">
         <v>51.10067436208574</v>
       </c>
-      <c r="D37" t="n">
+      <c r="H37" t="n">
         <v>51.10067436208574</v>
       </c>
-      <c r="E37" t="n">
-        <v>66.58441399778671</v>
-      </c>
-      <c r="F37" t="n">
-        <v>66.58441399778671</v>
-      </c>
-      <c r="G37" t="n">
-        <v>65.47180187316899</v>
-      </c>
-      <c r="H37" t="n">
-        <v>65.47180187316899</v>
-      </c>
       <c r="I37" t="n">
-        <v>65.47180187316899</v>
+        <v>74.23504503930334</v>
       </c>
       <c r="J37" t="n">
-        <v>65.47180187316899</v>
+        <v>74.23504503930334</v>
       </c>
       <c r="K37" t="n">
-        <v>111.8895340887804</v>
+        <v>107.8392327839468</v>
       </c>
       <c r="L37" t="n">
-        <v>212.4966134890399</v>
+        <v>208.4463121842062</v>
       </c>
       <c r="M37" t="n">
-        <v>330.4901196166417</v>
+        <v>326.439818311808</v>
       </c>
       <c r="N37" t="n">
-        <v>448.912461366242</v>
+        <v>450.0250734908598</v>
       </c>
       <c r="O37" t="n">
-        <v>547.3761078619317</v>
+        <v>548.4887199865494</v>
       </c>
       <c r="P37" t="n">
-        <v>610.3445915900695</v>
+        <v>611.4572037146872</v>
       </c>
       <c r="Q37" t="n">
-        <v>610.3445915900695</v>
+        <v>611.4572037146872</v>
       </c>
       <c r="R37" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S37" t="n">
-        <v>582.3634420562738</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T37" t="n">
-        <v>516.991625379485</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U37" t="n">
-        <v>397.6085223761172</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V37" t="n">
-        <v>304.680354442072</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W37" t="n">
-        <v>186.3310894670034</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X37" t="n">
-        <v>122.8857618699114</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.65773956972075</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
     <row r="38">
@@ -7175,25 +7175,25 @@
         <v>123.0992186348914</v>
       </c>
       <c r="K38" t="n">
-        <v>403.4153465927299</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L38" t="n">
-        <v>751.3007196776762</v>
+        <v>875.5927382556528</v>
       </c>
       <c r="M38" t="n">
-        <v>1144.539885930764</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N38" t="n">
-        <v>1522.87124461848</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O38" t="n">
-        <v>1992.343603582346</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P38" t="n">
-        <v>2384.968274529432</v>
+        <v>2344.792518616376</v>
       </c>
       <c r="Q38" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R38" t="n">
         <v>2555.033718104287</v>
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C39" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D39" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E39" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F39" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G39" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H39" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I39" t="n">
         <v>51.10067436208574</v>
@@ -7296,7 +7296,7 @@
         <v>1267.641586535707</v>
       </c>
       <c r="Y39" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="40">
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C40" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D40" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E40" t="n">
         <v>52.21328648670347</v>
@@ -7333,49 +7333,49 @@
         <v>51.10067436208574</v>
       </c>
       <c r="K40" t="n">
-        <v>130.9236227683826</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L40" t="n">
-        <v>231.5307021686421</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M40" t="n">
-        <v>349.5242082962438</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N40" t="n">
-        <v>467.9465500458442</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O40" t="n">
-        <v>566.4101965415339</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P40" t="n">
-        <v>629.3786802696717</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q40" t="n">
-        <v>629.3786802696717</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="R40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S40" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T40" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U40" t="n">
-        <v>398.7211345007349</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V40" t="n">
-        <v>305.7929665666898</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W40" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X40" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="41">
@@ -7406,28 +7406,28 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I41" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J41" t="n">
         <v>123.0992186348914</v>
       </c>
       <c r="K41" t="n">
-        <v>527.7073651707066</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L41" t="n">
-        <v>875.5927382556529</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M41" t="n">
-        <v>1268.831904508741</v>
+        <v>1104.364130017708</v>
       </c>
       <c r="N41" t="n">
-        <v>1647.163263196456</v>
+        <v>1482.695488705424</v>
       </c>
       <c r="O41" t="n">
-        <v>2116.635622160323</v>
+        <v>1952.16784766929</v>
       </c>
       <c r="P41" t="n">
-        <v>2384.968274529432</v>
+        <v>2220.500500038399</v>
       </c>
       <c r="Q41" t="n">
         <v>2479.400528215969</v>
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C42" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D42" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E42" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F42" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G42" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H42" t="n">
-        <v>119.4829596720247</v>
+        <v>104.77034221192</v>
       </c>
       <c r="I42" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J42" t="n">
-        <v>111.3548208951919</v>
+        <v>111.354820895192</v>
       </c>
       <c r="K42" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L42" t="n">
-        <v>706.6672186254962</v>
+        <v>706.6672186254963</v>
       </c>
       <c r="M42" t="n">
         <v>1191.700572135723</v>
@@ -7512,28 +7512,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S42" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T42" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U42" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V42" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W42" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X42" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y42" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="43">
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.02211951749089</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C43" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D43" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="E43" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F43" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G43" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H43" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I43" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J43" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K43" t="n">
-        <v>84.70486210672914</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L43" t="n">
         <v>185.3119415069887</v>
@@ -7579,40 +7579,40 @@
         <v>303.3054476345904</v>
       </c>
       <c r="N43" t="n">
-        <v>467.9465500458442</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O43" t="n">
-        <v>566.4101965415339</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P43" t="n">
-        <v>629.3786802696717</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q43" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R43" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S43" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T43" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U43" t="n">
-        <v>398.7211345007348</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V43" t="n">
-        <v>305.7929665666896</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W43" t="n">
-        <v>187.443701591621</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X43" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y43" t="n">
-        <v>69.77035169433844</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="44">
@@ -7628,37 +7628,37 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D44" t="n">
-        <v>942.7443621478541</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E44" t="n">
-        <v>715.7657787614932</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F44" t="n">
-        <v>469.4217245791958</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G44" t="n">
-        <v>221.124874540916</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H44" t="n">
-        <v>56.11073664575749</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I44" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J44" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K44" t="n">
-        <v>363.2395906796742</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L44" t="n">
-        <v>826.9339095659941</v>
+        <v>991.4016840570267</v>
       </c>
       <c r="M44" t="n">
-        <v>1220.173075819082</v>
+        <v>1549.108624801147</v>
       </c>
       <c r="N44" t="n">
-        <v>1762.97220899783</v>
+        <v>1927.439983488863</v>
       </c>
       <c r="O44" t="n">
         <v>2232.444567961697</v>
@@ -7691,7 +7691,7 @@
         <v>1813.858934499875</v>
       </c>
       <c r="Y44" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="45">
@@ -7701,13 +7701,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C45" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D45" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E45" t="n">
         <v>482.8431151521678</v>
@@ -7722,16 +7722,16 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I45" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J45" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K45" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L45" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M45" t="n">
         <v>1191.700572135723</v>
@@ -7749,28 +7749,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S45" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T45" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U45" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V45" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W45" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X45" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y45" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.90950739287321</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C46" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D46" t="n">
-        <v>65.54268635500834</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="E46" t="n">
-        <v>81.02642599070928</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="F46" t="n">
-        <v>81.02642599070928</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G46" t="n">
-        <v>79.91381386609153</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H46" t="n">
-        <v>79.91381386609153</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I46" t="n">
-        <v>79.91381386609153</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J46" t="n">
-        <v>79.91381386609153</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K46" t="n">
-        <v>113.5180016107349</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L46" t="n">
-        <v>214.1250810109944</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M46" t="n">
-        <v>332.1185871385962</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N46" t="n">
-        <v>450.5409288881966</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O46" t="n">
-        <v>565.2975844169165</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P46" t="n">
-        <v>628.2660681450543</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q46" t="n">
-        <v>628.2660681450543</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R46" t="n">
-        <v>628.2660681450543</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S46" t="n">
-        <v>582.3634420562742</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T46" t="n">
-        <v>516.9916253794852</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U46" t="n">
-        <v>397.6085223761173</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V46" t="n">
-        <v>304.6803544420721</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W46" t="n">
-        <v>186.3310894670035</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X46" t="n">
-        <v>122.8857618699115</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.6577395697208</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
   </sheetData>
@@ -7979,13 +7979,13 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
-        <v>421.3890363425141</v>
+        <v>297.1946741574579</v>
       </c>
       <c r="L2" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M2" t="n">
-        <v>460.1732313556267</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N2" t="n">
         <v>568.5510017355793</v>
@@ -8055,19 +8055,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
-        <v>482.0924488944969</v>
+        <v>481.9488350937481</v>
       </c>
       <c r="M3" t="n">
-        <v>605.4165828749999</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N3" t="n">
-        <v>106.7151410677083</v>
+        <v>600.6529294339218</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
@@ -8076,7 +8076,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
-        <v>216.0991940328444</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K5" t="n">
         <v>421.3890363425141</v>
@@ -8222,19 +8222,19 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M5" t="n">
-        <v>532.89903365139</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N5" t="n">
         <v>568.5510017355793</v>
       </c>
       <c r="O5" t="n">
-        <v>495.0402356415689</v>
+        <v>466.2319882913985</v>
       </c>
       <c r="P5" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.0094878578761</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8295,16 +8295,16 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K6" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L6" t="n">
-        <v>112.5754335711478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
-        <v>605.4165828749999</v>
+        <v>286.2861534347119</v>
       </c>
       <c r="N6" t="n">
-        <v>419.230876367298</v>
+        <v>600.6529294339218</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
@@ -8541,16 +8541,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
-        <v>623.1450866466196</v>
+        <v>173.9082232290041</v>
       </c>
       <c r="O9" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>124.1300184260142</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>273.1004740566041</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>273.1004740566041</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9477,7 +9477,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>163.9183459425325</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
@@ -11136,7 +11136,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425315</v>
+        <v>163.9183459425316</v>
       </c>
       <c r="K42" t="n">
         <v>343.8048081163522</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>298.2086467078061</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>318.1152213678985</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>94.79045928656048</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.46222820091666</v>
+        <v>93.4622282009167</v>
       </c>
       <c r="T11" t="n">
-        <v>130.220899391266</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>160.442025508113</v>
       </c>
       <c r="V11" t="n">
-        <v>241.7150239479851</v>
+        <v>241.7150239479852</v>
       </c>
       <c r="W11" t="n">
-        <v>267.0151234259421</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>286.3153816586887</v>
+        <v>1.575970178639977</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>89.82535758250314</v>
       </c>
       <c r="C13" t="n">
-        <v>76.02535242790358</v>
+        <v>54.21346578649583</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>59.64671682548202</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>58.59446668126147</v>
       </c>
       <c r="F13" t="n">
-        <v>59.06139100944773</v>
+        <v>59.06139100944777</v>
       </c>
       <c r="G13" t="n">
-        <v>75.33609373079557</v>
+        <v>75.33609373079561</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>65.88446135348603</v>
       </c>
       <c r="I13" t="n">
-        <v>50.86655653831534</v>
+        <v>50.86655653831538</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>56.13210615673265</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>137.0454820485451</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>58.96152759604601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>298.2086467078061</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>277.2012677100158</v>
       </c>
       <c r="E14" t="n">
-        <v>298.9434052799213</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>16.71409444646741</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.4622282009167</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>130.2208993912661</v>
       </c>
       <c r="U14" t="n">
-        <v>160.442025508113</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>267.0151234259421</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>109.9172939873679</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>297.7119794548875</v>
       </c>
     </row>
     <row r="15">
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>16.11847356438578</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>59.64671682548202</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>58.59446668126147</v>
       </c>
       <c r="F16" t="n">
         <v>59.06139100944777</v>
       </c>
       <c r="G16" t="n">
-        <v>72.65026875338044</v>
+        <v>75.33609373079561</v>
       </c>
       <c r="H16" t="n">
         <v>65.88446135348603</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>137.0454820485451</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>127.9203498046128</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-1.118761145645261e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-1.488243368240514e-12</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>949998.5578612175</v>
+        <v>949998.5578612174</v>
       </c>
     </row>
     <row r="6">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>249477.819660609</v>
+        <v>249477.8196606091</v>
       </c>
       <c r="C2" t="n">
         <v>249477.8196606091</v>
       </c>
       <c r="D2" t="n">
-        <v>249477.8196606091</v>
+        <v>249477.819660609</v>
       </c>
       <c r="E2" t="n">
         <v>216666.337757822</v>
       </c>
       <c r="F2" t="n">
-        <v>216666.3377578219</v>
+        <v>216666.337757822</v>
       </c>
       <c r="G2" t="n">
         <v>249477.8196606092</v>
@@ -26338,7 +26338,7 @@
         <v>249477.819660609</v>
       </c>
       <c r="K2" t="n">
-        <v>249477.819660609</v>
+        <v>249477.8196606091</v>
       </c>
       <c r="L2" t="n">
         <v>249477.8196606089</v>
@@ -26353,7 +26353,7 @@
         <v>249477.8196606092</v>
       </c>
       <c r="P2" t="n">
-        <v>249477.819660609</v>
+        <v>249477.8196606092</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9743.038208747004</v>
+        <v>9743.03820874705</v>
       </c>
       <c r="E3" t="n">
-        <v>107390.8010757636</v>
+        <v>107390.8010757635</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>65879.57388207645</v>
+        <v>65879.57388207648</v>
       </c>
       <c r="M3" t="n">
         <v>23482.50932456562</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>43541.16890732348</v>
+        <v>43541.16890732347</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>118181.7253353294</v>
       </c>
       <c r="F4" t="n">
-        <v>118181.7253353294</v>
+        <v>118181.7253353293</v>
       </c>
       <c r="G4" t="n">
         <v>175623.1205402357</v>
@@ -26451,13 +26451,13 @@
         <v>175623.1205402357</v>
       </c>
       <c r="N4" t="n">
-        <v>175623.1205402357</v>
+        <v>175623.1205402356</v>
       </c>
       <c r="O4" t="n">
         <v>175623.1205402357</v>
       </c>
       <c r="P4" t="n">
-        <v>175623.1205402356</v>
+        <v>175623.1205402357</v>
       </c>
     </row>
     <row r="5">
@@ -26494,7 +26494,7 @@
         <v>58458.01489582859</v>
       </c>
       <c r="K5" t="n">
-        <v>58458.01489582858</v>
+        <v>58458.01489582859</v>
       </c>
       <c r="L5" t="n">
         <v>57233.2059254115</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-173940.1443830576</v>
+        <v>-173940.1443830575</v>
       </c>
       <c r="C6" t="n">
-        <v>-8410.230932407001</v>
+        <v>-8410.230932406994</v>
       </c>
       <c r="D6" t="n">
-        <v>-11607.01251834247</v>
+        <v>-11607.01251834256</v>
       </c>
       <c r="E6" t="n">
-        <v>-55468.17630888055</v>
+        <v>-55720.57232351729</v>
       </c>
       <c r="F6" t="n">
-        <v>51922.624766883</v>
+        <v>51670.22875224629</v>
       </c>
       <c r="G6" t="n">
-        <v>-38335.80395421218</v>
+        <v>-38335.80395421207</v>
       </c>
       <c r="H6" t="n">
-        <v>21051.88222772705</v>
+        <v>21051.88222772708</v>
       </c>
       <c r="I6" t="n">
-        <v>21051.88222772718</v>
+        <v>21051.88222772715</v>
       </c>
       <c r="J6" t="n">
-        <v>-196017.4876132547</v>
+        <v>-196017.4876132548</v>
       </c>
       <c r="K6" t="n">
-        <v>14650.99182898834</v>
+        <v>14650.99182898836</v>
       </c>
       <c r="L6" t="n">
-        <v>-49835.77667827978</v>
+        <v>-49835.77667827984</v>
       </c>
       <c r="M6" t="n">
-        <v>-2430.627096838434</v>
+        <v>-2430.627096838492</v>
       </c>
       <c r="N6" t="n">
-        <v>21051.88222772715</v>
+        <v>21051.88222772724</v>
       </c>
       <c r="O6" t="n">
         <v>-22489.28667959635</v>
       </c>
       <c r="P6" t="n">
-        <v>21051.88222772701</v>
+        <v>21051.88222772715</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="F2" t="n">
         <v>91.89445741503287</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>493.9377883662136</v>
+        <v>493.9377883662135</v>
       </c>
       <c r="C4" t="n">
-        <v>493.9377883662136</v>
+        <v>493.9377883662135</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
@@ -26811,10 +26811,10 @@
         <v>638.7584295260716</v>
       </c>
       <c r="J4" t="n">
-        <v>783.5790706859301</v>
+        <v>783.5790706859302</v>
       </c>
       <c r="K4" t="n">
-        <v>783.57907068593</v>
+        <v>783.5790706859302</v>
       </c>
       <c r="L4" t="n">
         <v>752.2136577871534</v>
@@ -26826,10 +26826,10 @@
         <v>638.7584295260717</v>
       </c>
       <c r="O4" t="n">
+        <v>638.7584295260717</v>
+      </c>
+      <c r="P4" t="n">
         <v>638.7584295260716</v>
-      </c>
-      <c r="P4" t="n">
-        <v>638.7584295260717</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>54.42646113415435</v>
+        <v>54.42646113415434</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>82.34946735259557</v>
+        <v>82.3494673525956</v>
       </c>
       <c r="M2" t="n">
         <v>29.35313665570703</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>54.42646113415435</v>
+        <v>54.42646113415434</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>493.9377883662136</v>
+        <v>493.9377883662135</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>31.3654128987767</v>
+        <v>31.36541289877684</v>
       </c>
       <c r="E4" t="n">
         <v>113.4552282610816</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>54.42646113415435</v>
+        <v>54.42646113415434</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>493.9377883662136</v>
+        <v>493.9377883662135</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>31.3654128987767</v>
+        <v>31.36541289877684</v>
       </c>
       <c r="M4" t="n">
         <v>113.4552282610816</v>
@@ -27379,19 +27379,19 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>187.3931317291317</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>329.4930616586638</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>5.069960997925477</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27458,19 +27458,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
         <v>98.93847887876893</v>
@@ -27512,19 +27512,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>44.56137576781259</v>
       </c>
       <c r="W3" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>22.4344020632164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.719814997536</v>
+        <v>143.9562772537024</v>
       </c>
       <c r="C4" t="n">
         <v>167.9198098429365</v>
@@ -27552,7 +27552,7 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
         <v>142.7610139533483</v>
@@ -27588,16 +27588,16 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>198.6534405586117</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
         <v>228.939939463578</v>
@@ -27619,19 +27619,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>216.4228168525647</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>323.5024655564028</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -27698,10 +27698,10 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>92.03660977817042</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27752,7 +27752,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>113.1158212700809</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27780,16 +27780,16 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>63.38516666260247</v>
       </c>
       <c r="I7" t="n">
         <v>142.7610139533483</v>
@@ -27828,10 +27828,10 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>197.1353374175769</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
         <v>283.2948374677749</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>153.5454128037405</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27901,16 +27901,16 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
         <v>358.909580840975</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>282.3568658458582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27929,13 +27929,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>38.50770056809689</v>
       </c>
       <c r="C9" t="n">
-        <v>108.2594887509474</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
         <v>145.5577298436975</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
-        <v>154.4394336288325</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
         <v>151.5411742405149</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
@@ -28062,16 +28062,16 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>254.4952557232056</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="C11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="D11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="E11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="F11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="G11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="H11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="I11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>79.49647998155677</v>
       </c>
       <c r="K11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="L11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>79.49647998155689</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>91.89445741503292</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="R11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="S11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="T11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="U11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="V11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="W11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="X11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="Y11" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
     </row>
     <row r="12">
@@ -28184,7 +28184,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>14.56549128550283</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>14.5654912855027</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="C13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="D13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="E13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="F13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="G13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="H13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="I13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="J13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="K13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="L13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="M13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="N13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="O13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="P13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="Q13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="R13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="S13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="T13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="U13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="V13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="W13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="X13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="Y13" t="n">
-        <v>91.89445741503292</v>
+        <v>91.89445741503287</v>
       </c>
     </row>
     <row r="14">
@@ -28351,10 +28351,10 @@
         <v>91.89445741503287</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="L14" t="n">
-        <v>81.65903375748451</v>
+        <v>91.89445741503287</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -28366,10 +28366,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>91.89445741503287</v>
+        <v>81.65903375748411</v>
       </c>
       <c r="Q14" t="n">
-        <v>91.89445741503287</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>89.73190363910518</v>
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>14.56549128550282</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28469,7 +28469,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>14.56549128550299</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -28585,10 +28585,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K17" t="n">
-        <v>116.978733132702</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28597,16 +28597,16 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>116.9787331327018</v>
       </c>
       <c r="Q17" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>89.73190363910518</v>
@@ -28658,7 +28658,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>14.56549128550283</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -28691,7 +28691,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>14.56549128550307</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28731,7 +28731,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>152.0796990554076</v>
       </c>
       <c r="G19" t="n">
         <v>166.1290651424569</v>
@@ -28743,10 +28743,10 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J19" t="n">
-        <v>59.456666199969</v>
+        <v>105.0184323989949</v>
       </c>
       <c r="K19" t="n">
-        <v>46.68561682995295</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28822,31 +28822,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="M20" t="n">
-        <v>116.9787331327019</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
+        <v>40.58157162935015</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
         <v>166.1290651424569</v>
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>14.56549128550282</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28937,7 +28937,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>14.5654912855029</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -28968,13 +28968,13 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>152.0796990554076</v>
       </c>
       <c r="G22" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H22" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I22" t="n">
         <v>142.7610139533483</v>
@@ -28986,7 +28986,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>37.21161982508792</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.83758476280077</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R22" t="n">
         <v>148.0265635717656</v>
@@ -29059,10 +29059,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J23" t="n">
-        <v>40.58157162934924</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K23" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29080,7 +29080,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>40.5815716293491</v>
       </c>
       <c r="R23" t="n">
         <v>166.1290651424569</v>
@@ -29129,7 +29129,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -29177,7 +29177,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>14.56549128550327</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -29229,10 +29229,10 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>46.68561682995299</v>
       </c>
       <c r="O25" t="n">
-        <v>46.68561682995295</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29296,7 +29296,7 @@
         <v>128.6610688615784</v>
       </c>
       <c r="J26" t="n">
-        <v>83.11144176676444</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="K26" t="n">
         <v>128.6610688615784</v>
@@ -29305,7 +29305,7 @@
         <v>128.6610688615784</v>
       </c>
       <c r="M26" t="n">
-        <v>128.6610688615784</v>
+        <v>83.11144176676481</v>
       </c>
       <c r="N26" t="n">
         <v>128.6610688615784</v>
@@ -29372,7 +29372,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>14.56549128550344</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29408,7 +29408,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>14.5654912855033</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -29457,13 +29457,13 @@
         <v>59.456666199969</v>
       </c>
       <c r="K28" t="n">
-        <v>128.6610688615784</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>128.6610688615784</v>
+        <v>84.69794424581869</v>
       </c>
       <c r="M28" t="n">
-        <v>46.54597631297139</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>128.6610688615784</v>
@@ -29472,10 +29472,10 @@
         <v>128.6610688615784</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="Q28" t="n">
-        <v>38.15196793284785</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="R28" t="n">
         <v>128.6610688615784</v>
@@ -29539,7 +29539,7 @@
         <v>128.6610688615784</v>
       </c>
       <c r="L29" t="n">
-        <v>83.1114417667639</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="M29" t="n">
         <v>128.6610688615784</v>
@@ -29554,7 +29554,7 @@
         <v>128.6610688615784</v>
       </c>
       <c r="Q29" t="n">
-        <v>128.6610688615784</v>
+        <v>83.11144176676487</v>
       </c>
       <c r="R29" t="n">
         <v>128.6610688615784</v>
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -29654,7 +29654,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>14.56549128550367</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -29691,19 +29691,19 @@
         <v>128.6610688615784</v>
       </c>
       <c r="J31" t="n">
+        <v>106.0026425129399</v>
+      </c>
+      <c r="K31" t="n">
         <v>128.6610688615784</v>
       </c>
-      <c r="K31" t="n">
-        <v>106.002642512939</v>
-      </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>128.6610688615784</v>
       </c>
       <c r="M31" t="n">
         <v>128.6610688615784</v>
       </c>
       <c r="N31" t="n">
-        <v>128.6610688615784</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -29770,10 +29770,10 @@
         <v>136.7759284867499</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="K32" t="n">
-        <v>136.7759284867499</v>
+        <v>77.81815591473142</v>
       </c>
       <c r="L32" t="n">
         <v>136.7759284867499</v>
@@ -29791,10 +29791,10 @@
         <v>136.7759284867499</v>
       </c>
       <c r="Q32" t="n">
-        <v>30.77413106708643</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>136.7759284867499</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S32" t="n">
         <v>136.7759284867499</v>
@@ -29934,22 +29934,22 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>77.84514616827815</v>
+        <v>115.997114101126</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
         <v>136.7759284867499</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>136.7759284867499</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
         <v>136.7759284867499</v>
@@ -30007,10 +30007,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>116.978733132701</v>
+        <v>40.58157162934944</v>
       </c>
       <c r="L35" t="n">
         <v>166.1290651424569</v>
@@ -30019,7 +30019,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>89.73190363910518</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S35" t="n">
         <v>166.1290651424569</v>
@@ -30150,7 +30150,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>166.1290651424569</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
         <v>150.9558484244806</v>
@@ -30162,13 +30162,13 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I37" t="n">
-        <v>142.7610139533483</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="J37" t="n">
         <v>59.456666199969</v>
       </c>
       <c r="K37" t="n">
-        <v>12.94297421309901</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30177,7 +30177,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>5.215064070152948</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30247,10 +30247,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>40.58157162934921</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -30262,13 +30262,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="P38" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>116.9787331327008</v>
       </c>
       <c r="R38" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
         <v>166.1290651424569</v>
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30368,7 +30368,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>14.56549128550347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30387,7 +30387,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>151.6127747272213</v>
       </c>
       <c r="F40" t="n">
         <v>150.9558484244806</v>
@@ -30405,7 +30405,7 @@
         <v>59.456666199969</v>
       </c>
       <c r="K40" t="n">
-        <v>46.68561682995296</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30423,10 +30423,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>38.15196793284785</v>
+        <v>65.61123256118242</v>
       </c>
       <c r="R40" t="n">
-        <v>148.0265635717656</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S40" t="n">
         <v>166.1290651424569</v>
@@ -30484,7 +30484,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -30499,10 +30499,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="P41" t="n">
-        <v>40.58157162934918</v>
+        <v>40.58157162934941</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="R41" t="n">
         <v>166.1290651424569</v>
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>14.56549128550371</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30590,7 +30590,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>14.56549128550355</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -30621,7 +30621,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D43" t="n">
-        <v>151.5411742405149</v>
+        <v>152.6650248714419</v>
       </c>
       <c r="E43" t="n">
         <v>150.4889240962943</v>
@@ -30651,7 +30651,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>46.68561682995299</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>38.15196793284785</v>
+        <v>83.71373413187378</v>
       </c>
       <c r="R43" t="n">
         <v>148.0265635717656</v>
@@ -30718,22 +30718,22 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>116.9787331327007</v>
+        <v>116.9787331327009</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="N44" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -30782,7 +30782,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>14.5654912855033</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30858,10 +30858,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D46" t="n">
-        <v>166.1290651424569</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>166.1290651424569</v>
+        <v>151.6127747272213</v>
       </c>
       <c r="F46" t="n">
         <v>150.9558484244806</v>
@@ -30891,13 +30891,13 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>16.45758488184875</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>38.15196793284785</v>
+        <v>83.71373413187378</v>
       </c>
       <c r="R46" t="n">
         <v>148.0265635717656</v>
@@ -31859,7 +31859,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -32075,7 +32075,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -32087,7 +32087,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32312,7 +32312,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -32552,7 +32552,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -34699,13 +34699,13 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
-        <v>242.5660323684674</v>
+        <v>118.3716701834112</v>
       </c>
       <c r="L2" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M2" t="n">
-        <v>273.0169168584677</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N2" t="n">
         <v>382.1528875633492</v>
@@ -34775,19 +34775,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
-        <v>369.5170153233491</v>
+        <v>369.3734015226004</v>
       </c>
       <c r="M3" t="n">
-        <v>489.93268031336</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>493.9377883662135</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
@@ -34796,7 +34796,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
-        <v>102.3640025879519</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K5" t="n">
         <v>242.5660323684674</v>
@@ -34942,19 +34942,19 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M5" t="n">
-        <v>345.742719154231</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N5" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O5" t="n">
-        <v>308.0854388614484</v>
+        <v>279.277191511278</v>
       </c>
       <c r="P5" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q5" t="n">
-        <v>95.38611483488586</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,16 +35015,16 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K6" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
-        <v>489.93268031336</v>
+        <v>170.802250873072</v>
       </c>
       <c r="N6" t="n">
-        <v>312.5157352995897</v>
+        <v>493.9377883662135</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
@@ -35261,16 +35261,16 @@
         <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
-        <v>516.4299455789112</v>
+        <v>67.19308216129573</v>
       </c>
       <c r="O9" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>15.27581240187084</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>72.72580229576329</v>
+        <v>152.2222822773201</v>
       </c>
       <c r="K11" t="n">
         <v>334.4604897835003</v>
       </c>
       <c r="L11" t="n">
-        <v>443.2938241675039</v>
+        <v>443.2938241675038</v>
       </c>
       <c r="M11" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N11" t="n">
-        <v>461.6493675449061</v>
+        <v>474.0473449783821</v>
       </c>
       <c r="O11" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P11" t="n">
-        <v>322.3559689868039</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q11" t="n">
-        <v>187.2805722499188</v>
+        <v>187.2805722499187</v>
       </c>
       <c r="R11" t="n">
-        <v>2.162553775927734</v>
+        <v>2.162553775927691</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>32.43779121506392</v>
+        <v>32.43779121506387</v>
       </c>
       <c r="K13" t="n">
         <v>125.8380813995212</v>
       </c>
       <c r="L13" t="n">
-        <v>193.5177699405476</v>
+        <v>193.5177699405475</v>
       </c>
       <c r="M13" t="n">
         <v>211.0798171398831</v>
       </c>
       <c r="N13" t="n">
-        <v>211.5129844348313</v>
+        <v>211.5129844348312</v>
       </c>
       <c r="O13" t="n">
         <v>191.3526861985578</v>
@@ -35586,7 +35586,7 @@
         <v>155.4989864333539</v>
       </c>
       <c r="Q13" t="n">
-        <v>53.74248948218506</v>
+        <v>53.74248948218502</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,10 +35647,10 @@
         <v>164.6202597107962</v>
       </c>
       <c r="K14" t="n">
-        <v>242.5660323684674</v>
+        <v>334.4604897835003</v>
       </c>
       <c r="L14" t="n">
-        <v>433.0584005099554</v>
+        <v>443.2938241675038</v>
       </c>
       <c r="M14" t="n">
         <v>397.2112790435232</v>
@@ -35662,10 +35662,10 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P14" t="n">
-        <v>322.3559689868038</v>
+        <v>312.120545329255</v>
       </c>
       <c r="Q14" t="n">
-        <v>187.2805722499187</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.86277427586579</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K15" t="n">
         <v>231.8086389496855</v>
@@ -35735,7 +35735,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N15" t="n">
-        <v>516.4299455789112</v>
+        <v>516.429945578912</v>
       </c>
       <c r="O15" t="n">
         <v>396.1615664486372</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K17" t="n">
-        <v>359.5447655011695</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L17" t="n">
         <v>351.3993667524709</v>
@@ -35893,16 +35893,16 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N17" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O17" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P17" t="n">
-        <v>230.4615115717709</v>
+        <v>347.4402447044727</v>
       </c>
       <c r="Q17" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.86277427586579</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K18" t="n">
         <v>231.8086389496855</v>
@@ -35981,7 +35981,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.3652826117113</v>
+        <v>159.3652826117116</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36027,7 +36027,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>45.56176619902595</v>
       </c>
       <c r="K19" t="n">
-        <v>80.62924081444125</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L19" t="n">
         <v>101.6233125255146</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K20" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L20" t="n">
-        <v>517.5284318949278</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M20" t="n">
-        <v>514.1900121762251</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N20" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O20" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P20" t="n">
-        <v>396.5905767142278</v>
+        <v>271.0430832011211</v>
       </c>
       <c r="Q20" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.86277427586479</v>
+        <v>60.86277427586579</v>
       </c>
       <c r="K21" t="n">
-        <v>231.8086389496865</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L21" t="n">
         <v>369.5170153233491</v>
@@ -36264,13 +36264,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L22" t="n">
-        <v>101.6233125255146</v>
+        <v>138.8349323506026</v>
       </c>
       <c r="M22" t="n">
         <v>119.1853597248502</v>
@@ -36297,7 +36297,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.68561682995292</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>113.3073739251125</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K23" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L23" t="n">
         <v>351.3993667524709</v>
@@ -36376,7 +36376,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q23" t="n">
-        <v>95.38611483488586</v>
+        <v>135.967686464235</v>
       </c>
       <c r="R23" t="n">
         <v>76.39716150335175</v>
@@ -36525,10 +36525,10 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N25" t="n">
-        <v>119.6185270197983</v>
+        <v>166.3041438497513</v>
       </c>
       <c r="O25" t="n">
-        <v>146.1438456134779</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P25" t="n">
         <v>63.604529018321</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>155.8372440625277</v>
+        <v>201.3868711573417</v>
       </c>
       <c r="K26" t="n">
         <v>371.2271012300458</v>
@@ -36601,22 +36601,22 @@
         <v>480.0604356140493</v>
       </c>
       <c r="M26" t="n">
-        <v>525.8723479051016</v>
+        <v>480.322720810288</v>
       </c>
       <c r="N26" t="n">
         <v>510.8139564249276</v>
       </c>
       <c r="O26" t="n">
-        <v>436.7465077230268</v>
+        <v>436.7465077230269</v>
       </c>
       <c r="P26" t="n">
         <v>359.1225804333493</v>
       </c>
       <c r="Q26" t="n">
-        <v>224.0471836964642</v>
+        <v>224.0471836964643</v>
       </c>
       <c r="R26" t="n">
-        <v>38.92916522247319</v>
+        <v>38.92916522247322</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36753,13 +36753,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>162.6046928460667</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L28" t="n">
-        <v>230.284381387093</v>
+        <v>186.3212567713333</v>
       </c>
       <c r="M28" t="n">
-        <v>165.7313360378216</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N28" t="n">
         <v>248.2795958813767</v>
@@ -36768,10 +36768,10 @@
         <v>228.1192976451033</v>
       </c>
       <c r="P28" t="n">
-        <v>63.604529018321</v>
+        <v>192.2655978798994</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>90.50910092873055</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>371.2271012300458</v>
       </c>
       <c r="L29" t="n">
-        <v>434.5108085192348</v>
+        <v>480.0604356140493</v>
       </c>
       <c r="M29" t="n">
         <v>525.8723479051016</v>
       </c>
       <c r="N29" t="n">
-        <v>510.8139564249277</v>
+        <v>510.8139564249276</v>
       </c>
       <c r="O29" t="n">
         <v>436.7465077230269</v>
       </c>
       <c r="P29" t="n">
-        <v>359.1225804333494</v>
+        <v>359.1225804333493</v>
       </c>
       <c r="Q29" t="n">
-        <v>224.0471836964643</v>
+        <v>178.4975566016507</v>
       </c>
       <c r="R29" t="n">
-        <v>38.92916522247324</v>
+        <v>38.92916522247322</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>69.20440266160944</v>
+        <v>46.54597631297086</v>
       </c>
       <c r="K31" t="n">
-        <v>139.9462664974273</v>
+        <v>162.6046928460667</v>
       </c>
       <c r="L31" t="n">
-        <v>101.6233125255146</v>
+        <v>230.284381387093</v>
       </c>
       <c r="M31" t="n">
-        <v>247.8464285864287</v>
+        <v>247.8464285864286</v>
       </c>
       <c r="N31" t="n">
-        <v>248.2795958813768</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O31" t="n">
         <v>99.45822878352493</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>72.72580229576329</v>
+        <v>209.5017307825132</v>
       </c>
       <c r="K32" t="n">
-        <v>379.3419608552173</v>
+        <v>320.3841882831989</v>
       </c>
       <c r="L32" t="n">
         <v>488.1752952392209</v>
@@ -37087,10 +37087,10 @@
         <v>367.2374400585209</v>
       </c>
       <c r="Q32" t="n">
-        <v>126.1602459019723</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R32" t="n">
-        <v>47.04402484764472</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37230,22 +37230,22 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L34" t="n">
-        <v>179.4684586937928</v>
+        <v>217.6204266266406</v>
       </c>
       <c r="M34" t="n">
-        <v>119.1853597248502</v>
+        <v>255.9612882116001</v>
       </c>
       <c r="N34" t="n">
-        <v>256.3944555065482</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O34" t="n">
         <v>99.45822878352493</v>
       </c>
       <c r="P34" t="n">
-        <v>200.3804575050709</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>98.62396055390205</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K35" t="n">
-        <v>359.5447655011685</v>
+        <v>283.1476039978169</v>
       </c>
       <c r="L35" t="n">
         <v>517.5284318949278</v>
@@ -37315,7 +37315,7 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N35" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O35" t="n">
         <v>308.0854388614484</v>
@@ -37327,7 +37327,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37446,7 +37446,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>15.6401410461626</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -37458,13 +37458,13 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>23.36805118910868</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>46.88659819758731</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L37" t="n">
         <v>101.6233125255146</v>
@@ -37473,7 +37473,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N37" t="n">
-        <v>119.6185270197983</v>
+        <v>124.8335910899513</v>
       </c>
       <c r="O37" t="n">
         <v>99.45822878352493</v>
@@ -37543,10 +37543,10 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K38" t="n">
-        <v>283.1476039978166</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L38" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M38" t="n">
         <v>397.2112790435232</v>
@@ -37558,13 +37558,13 @@
         <v>474.2145040039054</v>
       </c>
       <c r="P38" t="n">
-        <v>396.5905767142278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q38" t="n">
-        <v>95.38611483488586</v>
+        <v>212.3648479675866</v>
       </c>
       <c r="R38" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37683,7 +37683,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>80.62924081444126</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L40" t="n">
         <v>101.6233125255146</v>
@@ -37719,10 +37719,10 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>27.45926462833456</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>18.10250157069137</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K41" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
         <v>351.3993667524709</v>
@@ -37795,10 +37795,10 @@
         <v>474.2145040039054</v>
       </c>
       <c r="P41" t="n">
-        <v>271.0430832011201</v>
+        <v>271.0430832011203</v>
       </c>
       <c r="Q41" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R41" t="n">
         <v>76.39716150335175</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.86277427586479</v>
+        <v>60.86277427586489</v>
       </c>
       <c r="K42" t="n">
         <v>231.8086389496855</v>
@@ -37917,7 +37917,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N43" t="n">
-        <v>166.3041438497513</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O43" t="n">
         <v>99.45822878352493</v>
@@ -37956,7 +37956,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>45.56176619902593</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,22 +38014,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K44" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L44" t="n">
-        <v>468.3780998851717</v>
+        <v>468.3780998851719</v>
       </c>
       <c r="M44" t="n">
-        <v>397.2112790435232</v>
+        <v>563.3403441859801</v>
       </c>
       <c r="N44" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O44" t="n">
-        <v>474.2145040039053</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P44" t="n">
         <v>230.4615115717709</v>
@@ -38099,7 +38099,7 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L45" t="n">
-        <v>369.5170153233492</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M45" t="n">
         <v>489.93268031336</v>
@@ -38154,10 +38154,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>14.58789090194202</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>15.64014104616257</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38187,13 +38187,13 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O46" t="n">
-        <v>115.9158136653737</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P46" t="n">
         <v>63.604529018321</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>45.56176619902593</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
